--- a/Lab 2 - Bolted Connections/data_and_analysis.xlsx
+++ b/Lab 2 - Bolted Connections/data_and_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-403\Lab 2 - Bolted Connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFBEA8F-FD9D-40F0-B68E-88B70F05263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB516C40-46FD-49E2-BEA6-F8B91BF229D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="169">
   <si>
     <t>(V)</t>
   </si>
@@ -407,9 +407,6 @@
     <t>Bolt Stiffness and Washer Calibration (Nut Finger Tight)</t>
   </si>
   <si>
-    <t>Torque Test</t>
-  </si>
-  <si>
     <t>Bolt</t>
   </si>
   <si>
@@ -419,9 +416,6 @@
     <t>Repeatability at 50 lb-in torque (no external load)</t>
   </si>
   <si>
-    <t>Torque (in-lb)</t>
-  </si>
-  <si>
     <t>Trial 4</t>
   </si>
   <si>
@@ -461,9 +455,6 @@
     <t>in</t>
   </si>
   <si>
-    <t>Bolt Body Cross Sectional Area</t>
-  </si>
-  <si>
     <t>mm^2</t>
   </si>
   <si>
@@ -471,6 +462,111 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>linest for bolt strain</t>
+  </si>
+  <si>
+    <t>linest for washer out</t>
+  </si>
+  <si>
+    <t>epsilon_{eq}</t>
+  </si>
+  <si>
+    <t>Gauge Resistance</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shunt Resistance </t>
+  </si>
+  <si>
+    <t>Number of Active Arms</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>correction factor</t>
+  </si>
+  <si>
+    <t>epsilon (coefficient for y = ax)</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>Bolt Transducer, $V_b$</t>
+  </si>
+  <si>
+    <t>Washer Transducer, $V_w$</t>
+  </si>
+  <si>
+    <t>Bolt Strain, $\epsilon_b$</t>
+  </si>
+  <si>
+    <t>Preload, $F_i$</t>
+  </si>
+  <si>
+    <t>Torque, $T$ (Nm)</t>
+  </si>
+  <si>
+    <t>Torque, $T$ (in-lb)</t>
+  </si>
+  <si>
+    <t>linest for Preload vs Torque</t>
+  </si>
+  <si>
+    <t>Torque Coeff</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>bolt stiffness</t>
+  </si>
+  <si>
+    <t>k_0.910</t>
+  </si>
+  <si>
+    <t>k_1.471</t>
+  </si>
+  <si>
+    <t>Cross Sectional Area, $A_s$ (mm^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolt Body Cross Sectional Area of 0.910 </t>
+  </si>
+  <si>
+    <t>Bolt Body Cross Sectional Area of 1.471</t>
+  </si>
+  <si>
+    <t>Threaded Section Length</t>
+  </si>
+  <si>
+    <t>k_14.5</t>
+  </si>
+  <si>
+    <t>k_eff</t>
+  </si>
+  <si>
+    <t>Length of section, $L$</t>
+  </si>
+  <si>
+    <t>(in)</t>
+  </si>
+  <si>
+    <t>(mm)</t>
+  </si>
+  <si>
+    <t>1/k (m/MN)</t>
+  </si>
+  <si>
+    <t>Stiffness, $k$ (MN/m)</t>
+  </si>
+  <si>
+    <t>MN/m</t>
   </si>
 </sst>
 </file>
@@ -490,7 +586,7 @@
     <numFmt numFmtId="173" formatCode="#,##0.000000;\-#,##0.000000;\-"/>
     <numFmt numFmtId="174" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -526,13 +622,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -556,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -660,36 +769,52 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,41 +1208,41 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="G13" s="37" t="s">
+      <c r="E13" s="41"/>
+      <c r="G13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="L13" s="39" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="L13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="39"/>
+      <c r="M13" s="41"/>
       <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="37" t="s">
+      <c r="Z13" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37" t="s">
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37" t="s">
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37" t="s">
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="37"/>
+      <c r="AG13" s="42"/>
     </row>
     <row r="14" spans="1:39" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1138,11 +1263,11 @@
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
@@ -6158,8 +6283,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
@@ -6184,8 +6309,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
@@ -6232,37 +6357,37 @@
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="37"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
+      <c r="A61" s="41"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
@@ -6284,14 +6409,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:H60"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="K61:L61"/>
     <mergeCell ref="AF13:AG13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K50:L50"/>
@@ -6302,6 +6419,14 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:H60"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6494,41 +6619,41 @@
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="G13" s="37" t="s">
+      <c r="E13" s="41"/>
+      <c r="G13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="L13" s="39" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="L13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="39"/>
+      <c r="M13" s="41"/>
       <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="37" t="s">
+      <c r="Z13" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37" t="s">
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37" t="s">
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37" t="s">
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="37"/>
+      <c r="AG13" s="42"/>
       <c r="AO13" s="3" t="s">
         <v>83</v>
       </c>
@@ -6552,11 +6677,11 @@
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
@@ -11784,16 +11909,16 @@
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37" t="s">
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
@@ -13980,785 +14105,1179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712A8C4D-2617-403C-8503-1436772C4FFD}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="42"/>
-    <col min="6" max="6" width="12.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="41">
+      <c r="B1" s="38">
         <v>400</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="E1" s="39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="38">
         <v>0.34300000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="E2" s="53">
+        <f>75-(0.91+1.471)*25.4</f>
+        <v>14.522599999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="38">
         <v>0.375</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0.371</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="B8" s="38">
+        <v>0.155</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="41">
-        <v>0.371</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="41">
-        <v>0.155</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="41">
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="38">
         <f>PI()/4*(B7^2-B8^2)*(25.4)^2</f>
         <v>57.570076945141288</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="38">
+        <f>PI()/4*B7^2*25.4^2</f>
+        <v>69.743724130458673</v>
+      </c>
+      <c r="C10" s="39"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="38">
+        <f>PI()/4*B4^2*25.4^2</f>
+        <v>71.255739248085618</v>
+      </c>
+      <c r="C11" s="39"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="38">
+        <v>120</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="38">
+        <v>175000</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="44" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="45" cm="1">
+        <f t="array" ref="G18:H22">LINEST(D19:D27,A19:A27, FALSE, TRUE)</f>
+        <v>8.4713375796178328E-5</v>
+      </c>
+      <c r="H18" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="45">
+        <v>0</v>
+      </c>
+      <c r="B19" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="45">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="47">
+        <f>4*B19/($B$6*$B$3*$B$1)</f>
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="G19">
+        <v>8.2056660109804756E-7</v>
+      </c>
+      <c r="H19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="45">
+        <v>1</v>
+      </c>
+      <c r="B20" s="46">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C20" s="45">
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="D20" s="47">
+        <f t="shared" ref="D20:D27" si="0">4*B20/($B$6*$B$3*$B$1)</f>
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="G20">
+        <v>0.99924995413810469</v>
+      </c>
+      <c r="H20">
+        <v>1.1495256568118845E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="45">
+        <v>2</v>
+      </c>
+      <c r="B21" s="46">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C21" s="45">
+        <v>-0.441</v>
+      </c>
+      <c r="D21" s="47">
+        <f t="shared" si="0"/>
+        <v>1.6800000000000002E-4</v>
+      </c>
+      <c r="G21">
+        <v>10658.014448481304</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="45">
+        <v>3</v>
+      </c>
+      <c r="B22" s="46">
+        <v>0.253</v>
+      </c>
+      <c r="C22" s="45">
+        <v>-0.66700000000000004</v>
+      </c>
+      <c r="D22" s="47">
+        <f t="shared" si="0"/>
+        <v>2.5300000000000002E-4</v>
+      </c>
+      <c r="G22">
+        <v>1.4083598726114649E-6</v>
+      </c>
+      <c r="H22">
+        <v>1.0571273885350356E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="45">
+        <v>4</v>
+      </c>
+      <c r="B23" s="46">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="C23" s="45">
+        <v>-0.88800000000000001</v>
+      </c>
+      <c r="D23" s="47">
+        <f t="shared" si="0"/>
+        <v>3.3500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="45">
+        <v>5</v>
+      </c>
+      <c r="B24" s="46">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="C24" s="45">
+        <v>-1.08</v>
+      </c>
+      <c r="D24" s="47">
+        <f t="shared" si="0"/>
+        <v>4.17E-4</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="51">
+        <f>1/(G18*B9)</f>
+        <v>205.04595276890194</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="45">
+        <v>6</v>
+      </c>
+      <c r="B25" s="46">
+        <v>0.498</v>
+      </c>
+      <c r="C25" s="45">
+        <v>-1.27</v>
+      </c>
+      <c r="D25" s="47">
+        <f t="shared" si="0"/>
+        <v>4.9799999999999996E-4</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="45">
+        <v>7</v>
+      </c>
+      <c r="B26" s="46">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="C26" s="45">
+        <v>-1.46</v>
+      </c>
+      <c r="D26" s="47">
+        <f t="shared" si="0"/>
+        <v>5.8099999999999992E-4</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="45" cm="1">
+        <f t="array" ref="G26:H26">LINEST(C19:C27,A19:A27, FALSE)</f>
+        <v>-0.21141146496815286</v>
+      </c>
+      <c r="H26" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="45">
+        <v>7.5</v>
+      </c>
+      <c r="B27" s="46">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="C27" s="45">
+        <v>-1.5469999999999999</v>
+      </c>
+      <c r="D27" s="47">
+        <f t="shared" si="0"/>
+        <v>6.6200000000000005E-4</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="45">
+        <f>4*G26/(B6*B3*B1)</f>
+        <v>-2.1141146496815285E-4</v>
+      </c>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F29" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="51">
+        <f>B12/(B14*B6*(B13+B12))</f>
+        <v>3.4262220191868436E-4</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F30" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="45">
+        <f>G18/G27</f>
+        <v>-0.40070379252581972</v>
+      </c>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="32" spans="1:9" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="57"/>
+      <c r="I32" s="55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>B33*0.11298482933333</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>-2E-3</v>
+      </c>
+      <c r="E33">
+        <v>-1E-3</v>
+      </c>
+      <c r="F33" s="40">
+        <f>4*D33/($B$6*$B$3*$B$1)</f>
+        <v>-1.9999999999999999E-6</v>
+      </c>
+      <c r="G33" s="40">
+        <f>$G$24*F33*$B$9</f>
+        <v>-2.3609022556390982E-2</v>
+      </c>
+      <c r="I33" cm="1">
+        <f t="array" ref="I33:J37">LINEST(G33:G38,C33:C38, FALSE, TRUE)</f>
+        <v>0.63576255935467008</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C38" si="1">B34*0.11298482933333</f>
+        <v>2.82462073333325</v>
+      </c>
+      <c r="D34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E34">
+        <v>-0.311</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" ref="F34:F38" si="2">4*D34/($B$6*$B$3*$B$1)</f>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="G34" s="54">
+        <f t="shared" ref="G34:G38" si="3">$G$24*F34*$B$9</f>
+        <v>1.6526315789473691</v>
+      </c>
+      <c r="I34">
+        <v>6.6107414151537879E-3</v>
+      </c>
+      <c r="J34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>5.6492414666665001</v>
+      </c>
+      <c r="D35">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E35">
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="2"/>
+        <v>2.9399999999999999E-4</v>
+      </c>
+      <c r="G35" s="54">
+        <f t="shared" si="3"/>
+        <v>3.4705263157894746</v>
+      </c>
+      <c r="I35">
+        <v>0.99945968661223894</v>
+      </c>
+      <c r="J35">
+        <v>0.138481467466676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>8.4738621999997505</v>
+      </c>
+      <c r="D36">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="E36">
+        <v>-0.90700000000000003</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="2"/>
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="G36" s="54">
+        <f t="shared" si="3"/>
+        <v>5.276616541353385</v>
+      </c>
+      <c r="I36">
+        <v>9248.8887861332005</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>11.298482933333</v>
+      </c>
+      <c r="D37">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E37">
+        <v>-1.2030000000000001</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" si="2"/>
+        <v>6.02E-4</v>
+      </c>
+      <c r="G37" s="54">
+        <f t="shared" si="3"/>
+        <v>7.106315789473685</v>
+      </c>
+      <c r="H37" s="40"/>
+      <c r="I37">
+        <v>177.36702081529876</v>
+      </c>
+      <c r="J37">
+        <v>9.5885584158620224E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>125</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>14.12310366666625</v>
+      </c>
+      <c r="D38">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E38">
+        <v>-1.5189999999999999</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="2"/>
+        <v>7.7800000000000005E-4</v>
+      </c>
+      <c r="G38" s="54">
+        <f t="shared" si="3"/>
+        <v>9.1839097744360938</v>
+      </c>
+      <c r="H38" s="54"/>
+      <c r="I38" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="J38" s="59">
+        <f>1/(I33*B7*25.4)</f>
+        <v>0.16691579121627786</v>
+      </c>
+      <c r="K38" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="60"/>
+    </row>
+    <row r="41" spans="1:11" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="C42" s="56">
+        <f>25.4*B42</f>
+        <v>23.114000000000001</v>
+      </c>
+      <c r="D42" s="56">
+        <f>B9</f>
+        <v>57.570076945141288</v>
+      </c>
+      <c r="E42" s="56">
+        <f>D42*$G$24/C42</f>
+        <v>510.70828407871807</v>
+      </c>
+      <c r="F42" s="56">
+        <f>1/E42</f>
+        <v>1.9580649681528663E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="39">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="C43" s="56">
+        <f>25.4*B43</f>
+        <v>37.363399999999999</v>
+      </c>
+      <c r="D43" s="56">
+        <f t="shared" ref="D43:D44" si="4">B10</f>
+        <v>69.743724130458673</v>
+      </c>
+      <c r="E43" s="56">
+        <f t="shared" ref="E43" si="5">D43*$G$24/C43</f>
+        <v>382.74537017459215</v>
+      </c>
+      <c r="F43" s="56">
+        <f t="shared" ref="F43:F44" si="6">1/E43</f>
+        <v>2.6127030603762562E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="53">
+        <f>E2/25.4</f>
+        <v>0.57175590551181099</v>
+      </c>
+      <c r="C44" s="56">
+        <f>25.4*B44</f>
+        <v>14.522599999999999</v>
+      </c>
+      <c r="D44" s="56">
+        <f t="shared" si="4"/>
+        <v>71.255739248085618</v>
+      </c>
+      <c r="E44" s="56">
+        <f>D44*$G$24/C44</f>
+        <v>1006.0664718697863</v>
+      </c>
+      <c r="F44" s="56">
+        <f t="shared" si="6"/>
+        <v>9.9397010829859822E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46">
+        <f>(SUM(F42:F44))^(-1)</f>
+        <v>179.70297530838855</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="39"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="39"/>
+      <c r="B71" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71" s="38"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B72">
+        <v>0.372</v>
+      </c>
+      <c r="C72">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D72">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E72">
+        <v>0.312</v>
+      </c>
+      <c r="F72">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73">
+        <v>-0.70099999999999996</v>
+      </c>
+      <c r="C73">
+        <v>-0.68400000000000005</v>
+      </c>
+      <c r="D73">
+        <v>-0.71799999999999997</v>
+      </c>
+      <c r="E73">
+        <v>-0.65400000000000003</v>
+      </c>
+      <c r="F73">
+        <v>-0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E75" s="45"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E76" s="45"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E77" s="45"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E78" s="45"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E79" s="45"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E80" s="45"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E81" s="45"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E82" s="45"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E83" s="45"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E84" s="45"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E85" s="45"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="C12" s="46">
-        <v>0</v>
-      </c>
-      <c r="D12" s="45">
-        <v>25</v>
-      </c>
-      <c r="E12" s="42">
-        <v>50</v>
-      </c>
-      <c r="F12" s="45">
-        <v>75</v>
-      </c>
-      <c r="G12" s="45">
-        <v>100</v>
-      </c>
-      <c r="H12" s="45">
+      <c r="B90" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="38">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="C91">
+        <v>-0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="38">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C92">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" s="38">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C93">
+        <v>-0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94" s="38">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C94">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" s="38">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="C95">
+        <v>-0.751</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="C96">
+        <v>-0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" s="38">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="C97">
+        <v>-0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" s="38">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="C98">
+        <v>-0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" s="38">
+        <v>0.436</v>
+      </c>
+      <c r="C99">
+        <v>-0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>6</v>
+      </c>
+      <c r="B100" s="38">
+        <v>0.498</v>
+      </c>
+      <c r="C100">
+        <v>-1.0680000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101" s="38">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C101">
+        <v>-1.226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>7.5</v>
+      </c>
+      <c r="B102" s="38">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C102">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="42">
-        <f>C12*0.112984829</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="42">
-        <f t="shared" ref="D13:H13" si="0">D12*0.112984829</f>
-        <v>2.8246207249999999</v>
-      </c>
-      <c r="E13" s="42">
-        <f t="shared" si="0"/>
-        <v>5.6492414499999999</v>
-      </c>
-      <c r="F13" s="42">
-        <f t="shared" si="0"/>
-        <v>8.4738621749999989</v>
-      </c>
-      <c r="G13" s="42">
-        <f t="shared" si="0"/>
-        <v>11.2984829</v>
-      </c>
-      <c r="H13" s="42">
-        <f t="shared" si="0"/>
-        <v>14.123103624999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="42">
-        <v>0</v>
-      </c>
-      <c r="C14" s="42">
-        <v>-2E-3</v>
-      </c>
-      <c r="D14" s="42">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F14" s="45">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="G14" s="45">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="H14" s="45">
-        <v>0.77800000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="42">
-        <v>0</v>
-      </c>
-      <c r="C15" s="42">
-        <v>-1E-3</v>
-      </c>
-      <c r="D15" s="42">
-        <v>-0.311</v>
-      </c>
-      <c r="E15" s="42">
-        <v>-0.61499999999999999</v>
-      </c>
-      <c r="F15" s="45">
-        <v>-0.90700000000000003</v>
-      </c>
-      <c r="G15" s="45">
-        <v>-1.2030000000000001</v>
-      </c>
-      <c r="H15" s="45">
-        <v>-1.5189999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="43"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="46" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="42">
-        <v>0.372</v>
-      </c>
-      <c r="C20" s="42">
+      <c r="B105" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="38">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="C108">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="38">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="C109">
+        <v>-0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="38">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D20" s="42">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="E20" s="42">
-        <v>0.312</v>
-      </c>
-      <c r="F20" s="42">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="42">
-        <v>-0.70099999999999996</v>
-      </c>
-      <c r="C21" s="42">
-        <v>-0.68400000000000005</v>
-      </c>
-      <c r="D21" s="42">
-        <v>-0.71799999999999997</v>
-      </c>
-      <c r="E21" s="45">
-        <v>-0.65400000000000003</v>
-      </c>
-      <c r="F21" s="45">
-        <v>-0.67900000000000005</v>
-      </c>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="42" cm="1">
-        <f t="array" ref="G24:H24">LINEST(D25:D33,A25:A33)</f>
-        <v>8.4876482213438754E-5</v>
-      </c>
-      <c r="H24" s="42">
-        <v>-9.0167984189733338E-7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="42">
-        <v>0</v>
-      </c>
-      <c r="B25" s="46">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C25" s="42">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="D25" s="49">
-        <f>4*B25/($B$6*$B$3*$B$1)</f>
-        <v>6.0000000000000002E-6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="42">
+      <c r="C110">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111" s="38">
+        <v>0.315</v>
+      </c>
+      <c r="C111">
+        <v>-0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>1</v>
       </c>
-      <c r="B26" s="46">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="C26" s="42">
-        <v>-0.21199999999999999</v>
-      </c>
-      <c r="D26" s="49">
-        <f t="shared" ref="D26:D33" si="1">4*B26/($B$6*$B$3*$B$1)</f>
-        <v>8.5000000000000006E-5</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="42">
-        <f>1/(G24*B9)</f>
-        <v>204.6519176974933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="42">
+      <c r="B112" s="38">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C112">
+        <v>-0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>2</v>
       </c>
-      <c r="B27" s="46">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="C27" s="42">
-        <v>-0.441</v>
-      </c>
-      <c r="D27" s="49">
-        <f t="shared" si="1"/>
-        <v>1.6800000000000002E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="45">
+      <c r="B113" s="38">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C113">
+        <v>-0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>3</v>
       </c>
-      <c r="B28" s="46">
-        <v>0.253</v>
-      </c>
-      <c r="C28" s="45">
-        <v>-0.66700000000000004</v>
-      </c>
-      <c r="D28" s="49">
-        <f t="shared" si="1"/>
-        <v>2.5300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="45">
+      <c r="B114" s="38">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C114">
+        <v>-0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>4</v>
       </c>
-      <c r="B29" s="46">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="C29" s="45">
-        <v>-0.88800000000000001</v>
-      </c>
-      <c r="D29" s="49">
-        <f t="shared" si="1"/>
-        <v>3.3500000000000001E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="45">
+      <c r="B115" s="38">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="C115">
+        <v>-0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>5</v>
       </c>
-      <c r="B30" s="46">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="C30" s="45">
-        <v>-1.08</v>
-      </c>
-      <c r="D30" s="49">
-        <f t="shared" si="1"/>
-        <v>4.17E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="45">
+      <c r="B116" s="38">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="C116">
+        <v>-0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>6</v>
       </c>
-      <c r="B31" s="46">
-        <v>0.498</v>
-      </c>
-      <c r="C31" s="45">
-        <v>-1.27</v>
-      </c>
-      <c r="D31" s="49">
-        <f t="shared" si="1"/>
-        <v>4.9799999999999996E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="45">
+      <c r="B117" s="38">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C117">
+        <v>-1.036</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118">
         <v>7</v>
       </c>
-      <c r="B32" s="46">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="C32" s="45">
-        <v>-1.46</v>
-      </c>
-      <c r="D32" s="49">
-        <f t="shared" si="1"/>
-        <v>5.8099999999999992E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="45">
+      <c r="B118" s="38">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="C118">
+        <v>-1.1479999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>7.5</v>
       </c>
-      <c r="B33" s="46">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="C33" s="45">
-        <v>-1.5469999999999999</v>
-      </c>
-      <c r="D33" s="49">
-        <f t="shared" si="1"/>
-        <v>6.6200000000000005E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="46">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="C39" s="42">
-        <v>-0.73099999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="46">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="C40" s="42">
-        <v>-0.72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="46">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="C41" s="42">
-        <v>-0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="45">
-        <v>0</v>
-      </c>
-      <c r="B42" s="46">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="C42" s="45">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="45">
-        <v>1</v>
-      </c>
-      <c r="B43" s="46">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="C43" s="45">
-        <v>-0.751</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="45">
-        <v>2</v>
-      </c>
-      <c r="B44" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="C44" s="45">
-        <v>-0.78300000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="45">
-        <v>3</v>
-      </c>
-      <c r="B45" s="46">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="C45" s="45">
-        <v>-0.81799999999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="45">
-        <v>4</v>
-      </c>
-      <c r="B46" s="46">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="C46" s="45">
-        <v>-0.85499999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="45">
-        <v>5</v>
-      </c>
-      <c r="B47" s="46">
-        <v>0.436</v>
-      </c>
-      <c r="C47" s="45">
-        <v>-0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="45">
-        <v>6</v>
-      </c>
-      <c r="B48" s="46">
-        <v>0.498</v>
-      </c>
-      <c r="C48" s="45">
-        <v>-1.0680000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="45">
-        <v>7</v>
-      </c>
-      <c r="B49" s="46">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="C49" s="45">
-        <v>-1.226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="45">
-        <v>7.5</v>
-      </c>
-      <c r="B50" s="46">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="C50" s="45">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" s="46">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="C56" s="42">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="46">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="C57" s="42">
-        <v>-0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="46">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="C58" s="42">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="45">
-        <v>0</v>
-      </c>
-      <c r="B59" s="46">
-        <v>0.315</v>
-      </c>
-      <c r="C59" s="45">
-        <v>-0.52800000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="45">
-        <v>1</v>
-      </c>
-      <c r="B60" s="46">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C60" s="45">
-        <v>-0.59299999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="45">
-        <v>2</v>
-      </c>
-      <c r="B61" s="46">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="C61" s="45">
-        <v>-0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="45">
-        <v>3</v>
-      </c>
-      <c r="B62" s="46">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="C62" s="45">
-        <v>-0.76600000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="45">
-        <v>4</v>
-      </c>
-      <c r="B63" s="46">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="C63" s="45">
-        <v>-0.85599999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="45">
-        <v>5</v>
-      </c>
-      <c r="B64" s="46">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="C64" s="45">
-        <v>-0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="45">
-        <v>6</v>
-      </c>
-      <c r="B65" s="46">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="C65" s="45">
-        <v>-1.036</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="45">
-        <v>7</v>
-      </c>
-      <c r="B66" s="46">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="C66" s="45">
-        <v>-1.1479999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="45">
-        <v>7.5</v>
-      </c>
-      <c r="B67" s="46">
+      <c r="B119" s="38">
         <v>0.627</v>
       </c>
-      <c r="C67" s="45">
+      <c r="C119">
         <v>-1.212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab 2 - Bolted Connections/data_and_analysis.xlsx
+++ b/Lab 2 - Bolted Connections/data_and_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-403\Lab 2 - Bolted Connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB516C40-46FD-49E2-BEA6-F8B91BF229D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23296FC5-FDA4-452D-9781-ACB2F1E89F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="seans analysis" sheetId="6" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="171">
   <si>
     <t>(V)</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>MN/m</t>
+  </si>
+  <si>
+    <t>k_m</t>
+  </si>
+  <si>
+    <t>Without Gasket</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -777,28 +783,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -810,10 +797,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,41 +1205,41 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="G13" s="42" t="s">
+      <c r="E13" s="51"/>
+      <c r="G13" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="L13" s="41" t="s">
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="L13" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="41"/>
+      <c r="M13" s="51"/>
       <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="42" t="s">
+      <c r="Z13" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42" t="s">
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42" t="s">
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42" t="s">
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="42"/>
+      <c r="AG13" s="49"/>
     </row>
     <row r="14" spans="1:39" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1263,11 +1260,11 @@
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
@@ -6283,8 +6280,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
@@ -6309,8 +6306,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
@@ -6357,37 +6354,37 @@
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="42"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="49"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
+      <c r="A61" s="51"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
@@ -6409,6 +6406,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:H60"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="K61:L61"/>
     <mergeCell ref="AF13:AG13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K50:L50"/>
@@ -6419,14 +6424,6 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:H60"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6619,41 +6616,41 @@
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="G13" s="42" t="s">
+      <c r="E13" s="51"/>
+      <c r="G13" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="L13" s="41" t="s">
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="L13" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="41"/>
+      <c r="M13" s="51"/>
       <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="42" t="s">
+      <c r="Z13" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42" t="s">
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42" t="s">
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42" t="s">
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="42"/>
+      <c r="AG13" s="49"/>
       <c r="AO13" s="3" t="s">
         <v>83</v>
       </c>
@@ -6677,11 +6674,11 @@
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
@@ -11909,16 +11906,16 @@
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42" t="s">
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
@@ -14105,10 +14102,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712A8C4D-2617-403C-8503-1436772C4FFD}">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14141,9 +14138,9 @@
       <c r="B2" s="38">
         <v>0.34300000000000003</v>
       </c>
-      <c r="E2" s="53">
-        <f>75-(0.91+1.471)*25.4</f>
-        <v>14.522599999999997</v>
+      <c r="E2" s="44">
+        <f>63.5-(0.91+1.471)*25.4</f>
+        <v>3.0225999999999971</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -14263,53 +14260,48 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="45" cm="1">
+      <c r="G18" cm="1">
         <f t="array" ref="G18:H22">LINEST(D19:D27,A19:A27, FALSE, TRUE)</f>
         <v>8.4713375796178328E-5</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="45">
-        <v>0</v>
-      </c>
-      <c r="B19" s="46">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" s="38">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="40">
         <f>4*B19/($B$6*$B$3*$B$1)</f>
         <v>6.0000000000000002E-6</v>
       </c>
@@ -14321,16 +14313,16 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="45">
+      <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="38">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20">
         <v>-0.21199999999999999</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="40">
         <f t="shared" ref="D20:D27" si="0">4*B20/($B$6*$B$3*$B$1)</f>
         <v>8.5000000000000006E-5</v>
       </c>
@@ -14342,16 +14334,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="45">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="38">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21">
         <v>-0.441</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="40">
         <f t="shared" si="0"/>
         <v>1.6800000000000002E-4</v>
       </c>
@@ -14363,16 +14355,16 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="45">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="38">
         <v>0.253</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22">
         <v>-0.66700000000000004</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="40">
         <f t="shared" si="0"/>
         <v>2.5300000000000002E-4</v>
       </c>
@@ -14384,164 +14376,156 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="45">
+      <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="38">
         <v>0.33500000000000002</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23">
         <v>-0.88800000000000001</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="40">
         <f t="shared" si="0"/>
         <v>3.3500000000000001E-4</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="45">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="38">
         <v>0.41699999999999998</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24">
         <v>-1.08</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="40">
         <f t="shared" si="0"/>
         <v>4.17E-4</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="42">
         <f>1/(G18*B9)</f>
         <v>205.04595276890194</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="43" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="45">
+      <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="38">
         <v>0.498</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25">
         <v>-1.27</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="40">
         <f t="shared" si="0"/>
         <v>4.9799999999999996E-4</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="45">
+      <c r="A26">
         <v>7</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="38">
         <v>0.58099999999999996</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26">
         <v>-1.46</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="40">
         <f t="shared" si="0"/>
         <v>5.8099999999999992E-4</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="45" cm="1">
+      <c r="G26" cm="1">
         <f t="array" ref="G26:H26">LINEST(C19:C27,A19:A27, FALSE)</f>
         <v>-0.21141146496815286</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="45">
+      <c r="A27">
         <v>7.5</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="38">
         <v>0.66200000000000003</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27">
         <v>-1.5469999999999999</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="40">
         <f t="shared" si="0"/>
         <v>6.6200000000000005E-4</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27">
         <f>4*G26/(B6*B3*B1)</f>
         <v>-2.1141146496815285E-4</v>
       </c>
-      <c r="H27" s="45"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="42">
         <f>B12/(B14*B6*(B13+B12))</f>
         <v>3.4262220191868436E-4</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="41" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30">
         <f>G18/G27</f>
         <v>-0.40070379252581972</v>
       </c>
-      <c r="H30" s="45"/>
-    </row>
-    <row r="32" spans="1:9" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
+    </row>
+    <row r="32" spans="1:9" s="47" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="55" t="s">
+      <c r="H32" s="48"/>
+      <c r="I32" s="46" t="s">
         <v>151</v>
       </c>
     </row>
@@ -14599,7 +14583,7 @@
         <f t="shared" ref="F34:F38" si="2">4*D34/($B$6*$B$3*$B$1)</f>
         <v>1.4000000000000001E-4</v>
       </c>
-      <c r="G34" s="54">
+      <c r="G34" s="45">
         <f t="shared" ref="G34:G38" si="3">$G$24*F34*$B$9</f>
         <v>1.6526315789473691</v>
       </c>
@@ -14631,7 +14615,7 @@
         <f t="shared" si="2"/>
         <v>2.9399999999999999E-4</v>
       </c>
-      <c r="G35" s="54">
+      <c r="G35" s="45">
         <f t="shared" si="3"/>
         <v>3.4705263157894746</v>
       </c>
@@ -14663,7 +14647,7 @@
         <f t="shared" si="2"/>
         <v>4.4700000000000002E-4</v>
       </c>
-      <c r="G36" s="54">
+      <c r="G36" s="45">
         <f t="shared" si="3"/>
         <v>5.276616541353385</v>
       </c>
@@ -14695,7 +14679,7 @@
         <f t="shared" si="2"/>
         <v>6.02E-4</v>
       </c>
-      <c r="G37" s="54">
+      <c r="G37" s="45">
         <f t="shared" si="3"/>
         <v>7.106315789473685</v>
       </c>
@@ -14728,68 +14712,68 @@
         <f t="shared" si="2"/>
         <v>7.7800000000000005E-4</v>
       </c>
-      <c r="G38" s="54">
+      <c r="G38" s="45">
         <f t="shared" si="3"/>
         <v>9.1839097744360938</v>
       </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="58" t="s">
+      <c r="H38" s="45"/>
+      <c r="I38" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="J38" s="59">
+      <c r="J38" s="42">
         <f>1/(I33*B7*25.4)</f>
         <v>0.16691579121627786</v>
       </c>
-      <c r="K38" s="58" t="s">
+      <c r="K38" s="41" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="60"/>
-    </row>
-    <row r="41" spans="1:11" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="55" t="s">
+      <c r="C40" s="52"/>
+    </row>
+    <row r="41" spans="1:11" s="47" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="F41" s="55" t="s">
+      <c r="F41" s="46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
         <v>155</v>
       </c>
       <c r="B42" s="39">
         <v>0.91</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="47">
         <f>25.4*B42</f>
         <v>23.114000000000001</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="47">
         <f>B9</f>
         <v>57.570076945141288</v>
       </c>
-      <c r="E42" s="56">
+      <c r="E42" s="47">
         <f>D42*$G$24/C42</f>
         <v>510.70828407871807</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42" s="47">
         <f>1/E42</f>
         <v>1.9580649681528663E-3</v>
       </c>
@@ -14801,19 +14785,19 @@
       <c r="B43" s="39">
         <v>1.4710000000000001</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="47">
         <f>25.4*B43</f>
         <v>37.363399999999999</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="47">
         <f t="shared" ref="D43:D44" si="4">B10</f>
         <v>69.743724130458673</v>
       </c>
-      <c r="E43" s="56">
+      <c r="E43" s="47">
         <f t="shared" ref="E43" si="5">D43*$G$24/C43</f>
         <v>382.74537017459215</v>
       </c>
-      <c r="F43" s="56">
+      <c r="F43" s="47">
         <f t="shared" ref="F43:F44" si="6">1/E43</f>
         <v>2.6127030603762562E-3</v>
       </c>
@@ -14822,457 +14806,479 @@
       <c r="A44" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="53">
+      <c r="B44" s="44">
         <f>E2/25.4</f>
-        <v>0.57175590551181099</v>
-      </c>
-      <c r="C44" s="56">
+        <v>0.1189999999999999</v>
+      </c>
+      <c r="C44" s="47">
         <f>25.4*B44</f>
-        <v>14.522599999999999</v>
-      </c>
-      <c r="D44" s="56">
+        <v>3.0225999999999971</v>
+      </c>
+      <c r="D44" s="47">
         <f t="shared" si="4"/>
         <v>71.255739248085618</v>
       </c>
-      <c r="E44" s="56">
+      <c r="E44" s="47">
         <f>D44*$G$24/C44</f>
-        <v>1006.0664718697863</v>
-      </c>
-      <c r="F44" s="56">
+        <v>4833.8188792351521</v>
+      </c>
+      <c r="F44" s="47">
         <f t="shared" si="6"/>
-        <v>9.9397010829859822E-4</v>
+        <v>2.0687576944509523E-4</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="42">
         <f>(SUM(F42:F44))^(-1)</f>
-        <v>179.70297530838855</v>
-      </c>
-      <c r="C46" s="39" t="s">
+        <v>209.30819506134233</v>
+      </c>
+      <c r="C46" s="41" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="42">
+        <f>PI()*G24*B7*25.4/(2*LN(5*(63.5+0.5*B7*25.4)/(63.5+2.5*B7*25.4)))</f>
+        <v>2222.7742744028305</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="38">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D54">
+        <v>-0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="38">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D55">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="38">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D56">
+        <v>-0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="38">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D57">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="38">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D58">
+        <v>-0.751</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="D59">
+        <v>-0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" s="38">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D60">
+        <v>-0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" s="38">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D61">
+        <v>-0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" s="38">
+        <v>0.436</v>
+      </c>
+      <c r="D62">
+        <v>-0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63" s="38">
+        <v>0.498</v>
+      </c>
+      <c r="D63">
+        <v>-1.0680000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64" s="38">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D64">
+        <v>-1.226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65">
+        <v>7.5</v>
+      </c>
+      <c r="C65" s="38">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D65">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="38">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D66">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="38">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D67">
+        <v>-0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="38">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D68">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" s="38">
+        <v>0.315</v>
+      </c>
+      <c r="D69">
+        <v>-0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="38">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D70">
+        <v>-0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" s="38">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D71">
+        <v>-0.67400000000000004</v>
+      </c>
+      <c r="G71" s="38"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" s="38">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D72">
+        <v>-0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" s="38">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D73">
+        <v>-0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74" s="38">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D74">
+        <v>-0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75" s="38">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D75">
+        <v>-1.036</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76" s="38">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D76">
+        <v>-1.1479999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77">
+        <v>7.5</v>
+      </c>
+      <c r="C77" s="38">
+        <v>0.627</v>
+      </c>
+      <c r="D77">
+        <v>-1.212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="39"/>
-    </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="39"/>
-      <c r="B71" s="38" t="s">
+      <c r="B90" s="39"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="39"/>
+      <c r="B91" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C91" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D91" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="38" t="s">
+      <c r="E91" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="F71" s="38" t="s">
+      <c r="F91" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="G71" s="38"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="39" t="s">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B72">
+      <c r="B92">
         <v>0.372</v>
       </c>
-      <c r="C72">
+      <c r="C92">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D72">
+      <c r="D92">
         <v>0.35399999999999998</v>
       </c>
-      <c r="E72">
+      <c r="E92">
         <v>0.312</v>
       </c>
-      <c r="F72">
+      <c r="F92">
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="39" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B73">
+      <c r="B93">
         <v>-0.70099999999999996</v>
       </c>
-      <c r="C73">
+      <c r="C93">
         <v>-0.68400000000000005</v>
       </c>
-      <c r="D73">
+      <c r="D93">
         <v>-0.71799999999999997</v>
       </c>
-      <c r="E73">
+      <c r="E93">
         <v>-0.65400000000000003</v>
       </c>
-      <c r="F73">
+      <c r="F93">
         <v>-0.67900000000000005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E75" s="45"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E76" s="45"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E77" s="45"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E78" s="45"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E79" s="45"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E80" s="45"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="45"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E82" s="45"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E83" s="45"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E84" s="45"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E85" s="45"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B90" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B91" s="38">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="C91">
-        <v>-0.73099999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B92" s="38">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="C92">
-        <v>-0.72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B93" s="38">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="C93">
-        <v>-0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>0</v>
-      </c>
-      <c r="B94" s="38">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="C94">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95" s="38">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="C95">
-        <v>-0.751</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>2</v>
-      </c>
-      <c r="B96" s="38">
-        <v>0.4</v>
-      </c>
-      <c r="C96">
-        <v>-0.78300000000000003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>3</v>
-      </c>
-      <c r="B97" s="38">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="C97">
-        <v>-0.81799999999999995</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>4</v>
-      </c>
-      <c r="B98" s="38">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="C98">
-        <v>-0.85499999999999998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>5</v>
-      </c>
-      <c r="B99" s="38">
-        <v>0.436</v>
-      </c>
-      <c r="C99">
-        <v>-0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>6</v>
-      </c>
-      <c r="B100" s="38">
-        <v>0.498</v>
-      </c>
-      <c r="C100">
-        <v>-1.0680000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>7</v>
-      </c>
-      <c r="B101" s="38">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="C101">
-        <v>-1.226</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>7.5</v>
-      </c>
-      <c r="B102" s="38">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="C102">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B105" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C107" s="39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B108" s="38">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="C108">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B109" s="38">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="C109">
-        <v>-0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B110" s="38">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="C110">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>0</v>
-      </c>
-      <c r="B111" s="38">
-        <v>0.315</v>
-      </c>
-      <c r="C111">
-        <v>-0.52800000000000002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>1</v>
-      </c>
-      <c r="B112" s="38">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C112">
-        <v>-0.59299999999999997</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>2</v>
-      </c>
-      <c r="B113" s="38">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="C113">
-        <v>-0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>3</v>
-      </c>
-      <c r="B114" s="38">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="C114">
-        <v>-0.76600000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>4</v>
-      </c>
-      <c r="B115" s="38">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="C115">
-        <v>-0.85599999999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>5</v>
-      </c>
-      <c r="B116" s="38">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="C116">
-        <v>-0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>6</v>
-      </c>
-      <c r="B117" s="38">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="C117">
-        <v>-1.036</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>7</v>
-      </c>
-      <c r="B118" s="38">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="C118">
-        <v>-1.1479999999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>7.5</v>
-      </c>
-      <c r="B119" s="38">
-        <v>0.627</v>
-      </c>
-      <c r="C119">
-        <v>-1.212</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 2 - Bolted Connections/data_and_analysis.xlsx
+++ b/Lab 2 - Bolted Connections/data_and_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-403\Lab 2 - Bolted Connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23296FC5-FDA4-452D-9781-ACB2F1E89F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1F7199-BEAB-46F3-AD62-76CB9575BCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="seans analysis" sheetId="6" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="176">
   <si>
     <t>(V)</t>
   </si>
@@ -548,9 +548,6 @@
     <t>k_14.5</t>
   </si>
   <si>
-    <t>k_eff</t>
-  </si>
-  <si>
     <t>Length of section, $L$</t>
   </si>
   <si>
@@ -569,10 +566,28 @@
     <t>MN/m</t>
   </si>
   <si>
-    <t>k_m</t>
-  </si>
-  <si>
     <t>Without Gasket</t>
+  </si>
+  <si>
+    <t>Bolt Force</t>
+  </si>
+  <si>
+    <t>linest for boltforce vs external</t>
+  </si>
+  <si>
+    <t>k_m, th</t>
+  </si>
+  <si>
+    <t>k_m, exp</t>
+  </si>
+  <si>
+    <t>k_b</t>
+  </si>
+  <si>
+    <t>preseperation</t>
+  </si>
+  <si>
+    <t>post seperation</t>
   </si>
 </sst>
 </file>
@@ -797,20 +812,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1205,41 +1220,41 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="G13" s="49" t="s">
+      <c r="E13" s="50"/>
+      <c r="G13" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="L13" s="51" t="s">
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="L13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="51"/>
+      <c r="M13" s="50"/>
       <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="49" t="s">
+      <c r="Z13" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49" t="s">
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49" t="s">
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49" t="s">
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="49"/>
+      <c r="AG13" s="51"/>
     </row>
     <row r="14" spans="1:39" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1260,11 +1275,11 @@
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
@@ -6280,8 +6295,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
@@ -6306,8 +6321,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
@@ -6354,37 +6369,37 @@
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="49"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
+      <c r="A61" s="50"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
@@ -6406,14 +6421,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:H60"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="K61:L61"/>
     <mergeCell ref="AF13:AG13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K50:L50"/>
@@ -6424,6 +6431,14 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:H60"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6616,41 +6631,41 @@
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="G13" s="49" t="s">
+      <c r="E13" s="50"/>
+      <c r="G13" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="L13" s="51" t="s">
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="L13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="51"/>
+      <c r="M13" s="50"/>
       <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="49" t="s">
+      <c r="Z13" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49" t="s">
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49" t="s">
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49" t="s">
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="49"/>
+      <c r="AG13" s="51"/>
       <c r="AO13" s="3" t="s">
         <v>83</v>
       </c>
@@ -6674,11 +6689,11 @@
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
@@ -11906,16 +11921,16 @@
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49" t="s">
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
     </row>
     <row r="55" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
@@ -14104,8 +14119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712A8C4D-2617-403C-8503-1436772C4FFD}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A65"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14729,29 +14744,29 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="52"/>
+      <c r="B40" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="53"/>
     </row>
     <row r="41" spans="1:11" s="47" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="s">
         <v>154</v>
       </c>
       <c r="B41" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="46" t="s">
         <v>164</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>165</v>
       </c>
       <c r="D41" s="46" t="s">
         <v>157</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -14828,35 +14843,35 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="53" t="s">
-        <v>162</v>
+      <c r="A46" s="49" t="s">
+        <v>173</v>
       </c>
       <c r="B46" s="42">
         <f>(SUM(F42:F44))^(-1)</f>
         <v>209.30819506134233</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B47" s="42">
         <f>PI()*G24*B7*25.4/(2*LN(5*(63.5+0.5*B7*25.4)/(63.5+2.5*B7*25.4)))</f>
         <v>2222.7742744028305</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="s">
         <v>121</v>
       </c>
@@ -14864,12 +14879,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="37" t="s">
         <v>111</v>
       </c>
@@ -14879,10 +14894,23 @@
       <c r="D53" s="39" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E53" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B54" s="39" t="s">
         <v>124</v>
@@ -14893,10 +14921,22 @@
       <c r="D54">
         <v>-0.73099999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <f>4*C54/($B$6*$B$3*$B$1)</f>
+        <v>3.86E-4</v>
+      </c>
+      <c r="F54">
+        <f>E54*$G$24*$B$9</f>
+        <v>4.5565413533834596</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="K54" s="39"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B55" s="39" t="s">
         <v>124</v>
@@ -14907,10 +14947,32 @@
       <c r="D55">
         <v>-0.72</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <f t="shared" ref="E55:E77" si="7">4*C55/($B$6*$B$3*$B$1)</f>
+        <v>3.8200000000000002E-4</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55:F77" si="8">E55*$G$24*$B$9</f>
+        <v>4.5093233082706785</v>
+      </c>
+      <c r="H55" cm="1">
+        <f t="array" ref="H55:I59">LINEST(F57:F61,B57:B61, TRUE, TRUE)</f>
+        <v>0.11568421052631556</v>
+      </c>
+      <c r="I55">
+        <v>4.502240601503761</v>
+      </c>
+      <c r="J55" cm="1">
+        <f t="array" ref="J55:K59">LINEST(F62:F65,B62:B65, TRUE, TRUE)</f>
+        <v>0.86873199949025115</v>
+      </c>
+      <c r="K55">
+        <v>0.7506868867082952</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B56" s="39" t="s">
         <v>124</v>
@@ -14921,10 +14983,30 @@
       <c r="D56">
         <v>-0.71499999999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <f t="shared" si="7"/>
+        <v>3.8099999999999999E-4</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="8"/>
+        <v>4.4975187969924821</v>
+      </c>
+      <c r="H56">
+        <v>2.7261351056473327E-3</v>
+      </c>
+      <c r="I56">
+        <v>6.6776399787242761E-3</v>
+      </c>
+      <c r="J56">
+        <v>3.9693879291837403E-2</v>
+      </c>
+      <c r="K56">
+        <v>0.25590241003667386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -14933,12 +15015,32 @@
         <v>0.38200000000000001</v>
       </c>
       <c r="D57">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>-0.72</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="7"/>
+        <v>3.8200000000000002E-4</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="8"/>
+        <v>4.5093233082706785</v>
+      </c>
+      <c r="H57">
+        <v>0.99833679833679823</v>
+      </c>
+      <c r="I57">
+        <v>8.620796143189325E-3</v>
+      </c>
+      <c r="J57">
+        <v>0.99584189129715028</v>
+      </c>
+      <c r="K57">
+        <v>7.6223618034726659E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -14949,10 +15051,30 @@
       <c r="D58">
         <v>-0.751</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <f t="shared" si="7"/>
+        <v>3.9100000000000002E-4</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="8"/>
+        <v>4.615563909774437</v>
+      </c>
+      <c r="H58">
+        <v>1800.7499999998913</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>478.98790650406357</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -14963,10 +15085,30 @@
       <c r="D59">
         <v>-0.78300000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="8"/>
+        <v>4.7218045112781963</v>
+      </c>
+      <c r="H59">
+        <v>0.13382836565096901</v>
+      </c>
+      <c r="I59">
+        <v>2.2295437842728379E-4</v>
+      </c>
+      <c r="J59">
+        <v>2.7829388705850908</v>
+      </c>
+      <c r="K59">
+        <v>1.1620079892607816E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -14977,10 +15119,18 @@
       <c r="D60">
         <v>-0.81799999999999995</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <f t="shared" si="7"/>
+        <v>4.1099999999999996E-4</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="8"/>
+        <v>4.8516541353383467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -14991,10 +15141,25 @@
       <c r="D61">
         <v>-0.85499999999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <f t="shared" si="7"/>
+        <v>4.2099999999999999E-4</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="8"/>
+        <v>4.9696992481203015</v>
+      </c>
+      <c r="H61" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61">
+        <f>B46*(1-H55)/H55</f>
+        <v>1599.9983136581809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -15005,10 +15170,18 @@
       <c r="D62">
         <v>-0.90100000000000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <f t="shared" si="7"/>
+        <v>4.3599999999999997E-4</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="8"/>
+        <v>5.1467669172932338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -15019,10 +15192,18 @@
       <c r="D63">
         <v>-1.0680000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <f t="shared" si="7"/>
+        <v>4.9799999999999996E-4</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="8"/>
+        <v>5.8786466165413538</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B64">
         <v>7</v>
@@ -15033,10 +15214,18 @@
       <c r="D64">
         <v>-1.226</v>
       </c>
+      <c r="E64">
+        <f t="shared" si="7"/>
+        <v>5.7799999999999995E-4</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="8"/>
+        <v>6.8230075187969934</v>
+      </c>
     </row>
     <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B65">
         <v>7.5</v>
@@ -15046,6 +15235,14 @@
       </c>
       <c r="D65">
         <v>-1.3</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="7"/>
+        <v>6.1899999999999998E-4</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="8"/>
+        <v>7.3069924812030083</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -15061,6 +15258,14 @@
       <c r="D66">
         <v>-0.54</v>
       </c>
+      <c r="E66">
+        <f t="shared" si="7"/>
+        <v>3.2700000000000003E-4</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="8"/>
+        <v>3.8600751879699255</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="s">
@@ -15075,6 +15280,14 @@
       <c r="D67">
         <v>-0.53400000000000003</v>
       </c>
+      <c r="E67">
+        <f t="shared" si="7"/>
+        <v>3.2299999999999999E-4</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="8"/>
+        <v>3.8128571428571436</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="s">
@@ -15089,6 +15302,14 @@
       <c r="D68">
         <v>-0.53</v>
       </c>
+      <c r="E68">
+        <f t="shared" si="7"/>
+        <v>3.21E-4</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>3.7892481203007526</v>
+      </c>
     </row>
     <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="s">
@@ -15103,6 +15324,14 @@
       <c r="D69">
         <v>-0.52800000000000002</v>
       </c>
+      <c r="E69">
+        <f t="shared" si="7"/>
+        <v>3.1500000000000001E-4</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>3.7184210526315797</v>
+      </c>
     </row>
     <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="s">
@@ -15117,6 +15346,14 @@
       <c r="D70">
         <v>-0.59299999999999997</v>
       </c>
+      <c r="E70">
+        <f t="shared" si="7"/>
+        <v>3.4399999999999996E-4</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>4.0607518796992483</v>
+      </c>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="s">
@@ -15131,6 +15368,14 @@
       <c r="D71">
         <v>-0.67400000000000004</v>
       </c>
+      <c r="E71">
+        <f t="shared" si="7"/>
+        <v>3.5799999999999997E-4</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>4.226015037593986</v>
+      </c>
       <c r="G71" s="38"/>
     </row>
     <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -15146,6 +15391,14 @@
       <c r="D72">
         <v>-0.76600000000000001</v>
       </c>
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>3.8900000000000002E-4</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>4.5919548872180469</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="s">
@@ -15160,6 +15413,14 @@
       <c r="D73">
         <v>-0.85599999999999998</v>
       </c>
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>4.26E-4</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>5.0287218045112789</v>
+      </c>
     </row>
     <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="s">
@@ -15174,6 +15435,14 @@
       <c r="D74">
         <v>-0.94099999999999995</v>
       </c>
+      <c r="E74">
+        <f t="shared" si="7"/>
+        <v>4.6899999999999996E-4</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>5.5363157894736847</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="s">
@@ -15188,6 +15457,14 @@
       <c r="D75">
         <v>-1.036</v>
       </c>
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>5.2400000000000005E-4</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
+        <v>6.1855639097744382</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="s">
@@ -15202,6 +15479,14 @@
       <c r="D76">
         <v>-1.1479999999999999</v>
       </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>5.8900000000000001E-4</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>6.9528571428571446</v>
+      </c>
     </row>
     <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="s">
@@ -15215,6 +15500,14 @@
       </c>
       <c r="D77">
         <v>-1.212</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>6.2699999999999995E-4</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>7.401428571428573</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">

--- a/Lab 2 - Bolted Connections/data_and_analysis.xlsx
+++ b/Lab 2 - Bolted Connections/data_and_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-403\Lab 2 - Bolted Connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707B886B-1454-49B1-AC7B-C1591CDCEE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8FA972-E396-4A22-BED3-1A5CA6DBA93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="197">
   <si>
     <t>(V)</t>
   </si>
@@ -641,6 +641,15 @@
   </si>
   <si>
     <t>Torque</t>
+  </si>
+  <si>
+    <t>%err</t>
+  </si>
+  <si>
+    <t>gasket quadratic</t>
+  </si>
+  <si>
+    <t>gasket linear</t>
   </si>
 </sst>
 </file>
@@ -737,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -841,19 +850,24 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1296,41 +1310,41 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="G13" s="43" t="s">
+      <c r="E13" s="44"/>
+      <c r="G13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="L13" s="45" t="s">
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="L13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="45"/>
+      <c r="M13" s="44"/>
       <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="43" t="s">
+      <c r="Z13" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43" t="s">
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43" t="s">
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43" t="s">
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="43"/>
+      <c r="AG13" s="45"/>
     </row>
     <row r="14" spans="1:39" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1351,11 +1365,11 @@
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
@@ -6371,8 +6385,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
@@ -6397,8 +6411,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
@@ -6445,37 +6459,37 @@
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="43"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="45"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
+      <c r="A61" s="44"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
@@ -6497,14 +6511,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:H60"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="K61:L61"/>
     <mergeCell ref="AF13:AG13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K50:L50"/>
@@ -6515,6 +6521,14 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:H60"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6523,10 +6537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712A8C4D-2617-403C-8503-1436772C4FFD}">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:F102"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6946,7 +6960,7 @@
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="34" cm="1">
-        <f t="array" ref="H26:I26">LINEST(C19:C27,A19:A27, FALSE)</f>
+        <f t="array" ref="H26:I30">LINEST(C19:C27,A19:A27, FALSE, TRUE)</f>
         <v>-0.21141146496815286</v>
       </c>
       <c r="I26">
@@ -6967,669 +6981,627 @@
         <f t="shared" si="0"/>
         <v>6.6200000000000005E-4</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="H27">
+        <v>1.8919918738836679E-3</v>
+      </c>
+      <c r="I27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B28" s="28"/>
+      <c r="D28" s="30"/>
+      <c r="H28">
+        <v>0.99935968559059274</v>
+      </c>
+      <c r="I28">
+        <v>2.6504773635662494E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B29" s="28"/>
+      <c r="D29" s="30"/>
+      <c r="H29">
+        <v>12485.862206545746</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>8.7713559757961779</v>
+      </c>
+      <c r="I30">
+        <v>5.6200242038216769E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F32" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30">
+      <c r="G32" s="29"/>
+      <c r="H32" s="30">
         <f>4*H26/(B6*B3*B1)</f>
         <v>-2.1141146496815285E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F29" s="31" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F33" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32">
+      <c r="G33" s="31"/>
+      <c r="H33" s="32">
         <f>B12/(B14*B6*(B13+B12))</f>
         <v>3.4262220191868436E-4</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I33" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F30" s="29" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F34" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30">
-        <f>H18/H27</f>
+      <c r="G34" s="29"/>
+      <c r="H34">
+        <f>H18/H32</f>
         <v>-0.40070379252581972</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+    <row r="35" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B35" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C35" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D35" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E35" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F35" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G35" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H35" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="I32" s="38"/>
-      <c r="K32" s="36" t="s">
+      <c r="I35" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="K35" s="36" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="42">
-        <f>B33*0.11298482933333</f>
-        <v>0</v>
-      </c>
-      <c r="D33">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" s="42">
+        <f>B36*0.11298482933333</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>-2E-3</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>-1E-3</v>
       </c>
-      <c r="F33" s="30">
-        <f>4*D33/($B$6*$B$3*$B$1)</f>
+      <c r="F36" s="30">
+        <f>4*D36/($B$6*$B$3*$B$1)</f>
         <v>-1.9999999999999999E-6</v>
       </c>
-      <c r="G33" s="41">
-        <f t="shared" ref="G33:G38" si="1">$H$24*F33*$B$9</f>
+      <c r="G36" s="41">
+        <f t="shared" ref="G36:G41" si="1">$H$24*F36*$B$9</f>
         <v>-2.3609022556390982E-2</v>
       </c>
-      <c r="H33" s="34">
-        <f>ABS(G33*SQRT($J$86^2/D33^2+$L$20^2/$H$24^2))</f>
+      <c r="H36" s="34">
+        <f>ABS(G36*SQRT($J$89^2/D36^2+$L$20^2/$H$24^2))</f>
         <v>0.36624031823579389</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="I36">
+        <f>H36/G36*100</f>
+        <v>-1551.2726855210374</v>
+      </c>
+      <c r="J36" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="K33" cm="1">
-        <f t="array" ref="K33:L37">LINEST(G33:G38,C33:C38, FALSE, TRUE)</f>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36:L40">LINEST(G36:G41,C36:C41, FALSE, TRUE)</f>
         <v>0.63576255935467008</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
         <v>25</v>
       </c>
-      <c r="C34" s="34">
-        <f t="shared" ref="C34:C38" si="2">B34*0.11298482933333</f>
+      <c r="C37" s="34">
+        <f t="shared" ref="C37:C41" si="2">B37*0.11298482933333</f>
         <v>2.82462073333325</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D37" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>-0.311</v>
       </c>
-      <c r="F34" s="30">
-        <f t="shared" ref="F34:F38" si="3">4*D34/($B$6*$B$3*$B$1)</f>
+      <c r="F37" s="30">
+        <f t="shared" ref="F37:F41" si="3">4*D37/($B$6*$B$3*$B$1)</f>
         <v>1.4000000000000001E-4</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G37" s="35">
         <f t="shared" si="1"/>
         <v>1.6526315789473691</v>
       </c>
-      <c r="H34" s="34">
-        <f t="shared" ref="H34:H38" si="4">ABS(G34*SQRT($J$86^2/D34^2+$L$20^2/$H$24^2))</f>
+      <c r="H37" s="34">
+        <f>ABS(G37*SQRT($J$89^2/D37^2+$L$20^2/$H$24^2))</f>
         <v>0.36819088270515959</v>
       </c>
-      <c r="K34">
+      <c r="I37">
+        <f t="shared" ref="I37:I41" si="4">H37/G37*100</f>
+        <v>22.279066150949138</v>
+      </c>
+      <c r="K37">
         <v>6.6107414151537879E-3</v>
       </c>
-      <c r="L34" t="e">
+      <c r="L37" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
         <v>50</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C38" s="34">
         <f t="shared" si="2"/>
         <v>5.6492414666665001</v>
       </c>
-      <c r="D35">
+      <c r="D38">
         <v>0.29399999999999998</v>
       </c>
-      <c r="E35">
+      <c r="E38">
         <v>-0.61499999999999999</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F38" s="30">
         <f t="shared" si="3"/>
         <v>2.9399999999999999E-4</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G38" s="35">
         <f t="shared" si="1"/>
         <v>3.4705263157894746</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H38" s="34">
+        <f>ABS(G38*SQRT($J$89^2/D38^2+$L$20^2/$H$24^2))</f>
+        <v>0.37476731072216912</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="4"/>
-        <v>0.37476731072216912</v>
-      </c>
-      <c r="K35">
+        <v>10.79857279909192</v>
+      </c>
+      <c r="K38">
         <v>0.99945968661223894</v>
       </c>
-      <c r="L35">
+      <c r="L38">
         <v>0.138481467466676</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
         <v>75</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C39" s="34">
         <f t="shared" si="2"/>
         <v>8.4738621999997505</v>
       </c>
-      <c r="D36">
+      <c r="D39">
         <v>0.44700000000000001</v>
       </c>
-      <c r="E36">
+      <c r="E39">
         <v>-0.90700000000000003</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F39" s="30">
         <f t="shared" si="3"/>
         <v>4.4700000000000002E-4</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G39" s="35">
         <f t="shared" si="1"/>
         <v>5.276616541353385</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H39" s="34">
+        <f>ABS(G39*SQRT($J$89^2/D39^2+$L$20^2/$H$24^2))</f>
+        <v>0.3856664510786752</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="4"/>
-        <v>0.3856664510786752</v>
-      </c>
-      <c r="K36">
+        <v>7.3089724837150412</v>
+      </c>
+      <c r="K39">
         <v>9248.8887861332005</v>
       </c>
-      <c r="L36">
+      <c r="L39">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
         <v>100</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C40" s="34">
         <f t="shared" si="2"/>
         <v>11.298482933333</v>
       </c>
-      <c r="D37">
+      <c r="D40">
         <v>0.60199999999999998</v>
       </c>
-      <c r="E37">
+      <c r="E40">
         <v>-1.2030000000000001</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F40" s="30">
         <f t="shared" si="3"/>
         <v>6.02E-4</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G40" s="35">
         <f t="shared" si="1"/>
         <v>7.106315789473685</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H40" s="34">
+        <f>ABS(G40*SQRT($J$89^2/D40^2+$L$20^2/$H$24^2))</f>
+        <v>0.40078053164198424</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="4"/>
-        <v>0.40078053164198424</v>
-      </c>
-      <c r="I37" s="30"/>
-      <c r="K37">
+        <v>5.6397793669069021</v>
+      </c>
+      <c r="K40">
         <v>177.36702081529876</v>
       </c>
-      <c r="L37">
+      <c r="L40">
         <v>9.5885584158620224E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
         <v>125</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C41" s="34">
         <f t="shared" si="2"/>
         <v>14.12310366666625</v>
       </c>
-      <c r="D38">
+      <c r="D41">
         <v>0.77800000000000002</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>-1.5189999999999999</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F41" s="30">
         <f t="shared" si="3"/>
         <v>7.7800000000000005E-4</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G41" s="35">
         <f t="shared" si="1"/>
         <v>9.1839097744360938</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H41" s="34">
+        <f>ABS(G41*SQRT($J$89^2/D41^2+$L$20^2/$H$24^2))</f>
+        <v>0.42235133578555073</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="4"/>
-        <v>0.42235133578555073</v>
-      </c>
-      <c r="I38" s="35"/>
-      <c r="K38" s="31" t="s">
+        <v>4.5988184352723973</v>
+      </c>
+      <c r="K41" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="L38" s="40">
-        <f>1/(K33*B7*25.4)</f>
+      <c r="L41" s="40">
+        <f>1/(K36*B7*25.4)</f>
         <v>0.16691579121627786</v>
       </c>
-      <c r="M38" s="33" t="s">
+      <c r="M41" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="46" t="s">
+    <row r="43" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="46"/>
-    </row>
-    <row r="41" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="C43" s="47"/>
+    </row>
+    <row r="44" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B44" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C44" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D44" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E44" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F44" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B45" s="29">
         <v>0.91</v>
       </c>
-      <c r="C42" s="37">
-        <f>25.4*B42</f>
+      <c r="C45" s="37">
+        <f>25.4*B45</f>
         <v>23.114000000000001</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D45" s="37">
         <f>B9</f>
         <v>57.570076945141288</v>
       </c>
-      <c r="E42" s="37">
-        <f>D42*$H$24/C42</f>
+      <c r="E45" s="50">
+        <f>D45*$H$24/C45</f>
         <v>510.70828407871807</v>
       </c>
-      <c r="F42" s="37">
-        <f>1/E42</f>
+      <c r="F45" s="37">
+        <f>1/E45</f>
         <v>1.9580649681528663E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B46" s="29">
         <v>1.4710000000000001</v>
       </c>
-      <c r="C43" s="37">
-        <f>25.4*B43</f>
+      <c r="C46" s="37">
+        <f>25.4*B46</f>
         <v>37.363399999999999</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D46" s="37">
         <f>B10</f>
         <v>69.743724130458673</v>
       </c>
-      <c r="E43" s="37">
-        <f t="shared" ref="E43" si="5">D43*$H$24/C43</f>
+      <c r="E46" s="50">
+        <f t="shared" ref="E46" si="5">D46*$H$24/C46</f>
         <v>382.74537017459215</v>
       </c>
-      <c r="F43" s="37">
-        <f t="shared" ref="F43:F44" si="6">1/E43</f>
+      <c r="F46" s="37">
+        <f t="shared" ref="F46:F47" si="6">1/E46</f>
         <v>2.6127030603762562E-3</v>
       </c>
-      <c r="G43" s="37"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
+      <c r="G46" s="37"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B47" s="34">
         <f>E2/25.4</f>
         <v>0.1189999999999999</v>
       </c>
-      <c r="C44" s="37">
-        <f>25.4*B44</f>
+      <c r="C47" s="37">
+        <f>25.4*B47</f>
         <v>3.0225999999999971</v>
       </c>
-      <c r="D44" s="37">
-        <f t="shared" ref="D43:D44" si="7">B11</f>
+      <c r="D47" s="37">
+        <f t="shared" ref="D47" si="7">B11</f>
         <v>71.255739248085618</v>
       </c>
-      <c r="E44" s="37">
-        <f>D44*$H$24/C44</f>
+      <c r="E47" s="50">
+        <f>D47*$H$24/C47</f>
         <v>4833.8188792351521</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F47" s="37">
         <f t="shared" si="6"/>
         <v>2.0687576944509523E-4</v>
       </c>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
+      <c r="G47" s="37"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="32">
-        <f>(SUM(F42:F44))^(-1)</f>
+      <c r="B49" s="49">
+        <f>(SUM(F45:F47))^(-1)</f>
         <v>209.30819506134233</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C49" s="31" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="31" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="32">
+      <c r="B50" s="48">
         <f>PI()*H24*B7*25.4/(2*LN(5*(63.5+0.5*B7*25.4)/(63.5+2.5*B7*25.4)))</f>
         <v>2222.7742744028305</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C50" s="31" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B54" s="29">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>157</v>
       </c>
-      <c r="D51">
-        <f>B51*0.11298482933333</f>
+      <c r="D54">
+        <f>B54*0.11298482933333</f>
         <v>6.7790897599997999</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E54" s="29" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B53" s="27" t="s">
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B56" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C56" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D56" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E56" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F56" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29" t="s">
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="K53" s="29" t="s">
+      <c r="K56" s="29" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="28">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="D54">
-        <v>-0.73099999999999998</v>
-      </c>
-      <c r="E54">
-        <f>4*C54/($B$6*$B$3*$B$1)</f>
-        <v>3.86E-4</v>
-      </c>
-      <c r="F54">
-        <f>E54*$H$24*$B$9</f>
-        <v>4.5565413533834596</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="L54" s="29"/>
-    </row>
-    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="28">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D55">
-        <v>-0.72</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ref="E55:E77" si="8">4*C55/($B$6*$B$3*$B$1)</f>
-        <v>3.8200000000000002E-4</v>
-      </c>
-      <c r="F55">
-        <f t="shared" ref="F55:F77" si="9">E55*$H$24*$B$9</f>
-        <v>4.5093233082706785</v>
-      </c>
-      <c r="I55" cm="1">
-        <f t="array" ref="I55:J59">LINEST(F57:F61,B57:B61, TRUE, TRUE)</f>
-        <v>0.11568421052631556</v>
-      </c>
-      <c r="J55">
-        <v>4.502240601503761</v>
-      </c>
-      <c r="K55" cm="1">
-        <f t="array" ref="K55:L59">LINEST(F62:F65,B62:B65, TRUE, TRUE)</f>
-        <v>0.86873199949025115</v>
-      </c>
-      <c r="L55">
-        <v>0.7506868867082952</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="28">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="D56">
-        <v>-0.71499999999999997</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="8"/>
-        <v>3.8099999999999999E-4</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="9"/>
-        <v>4.4975187969924821</v>
-      </c>
-      <c r="I56">
-        <v>2.7261351056473327E-3</v>
-      </c>
-      <c r="J56">
-        <v>6.6776399787242761E-3</v>
-      </c>
-      <c r="K56">
-        <v>3.9693879291837403E-2</v>
-      </c>
-      <c r="L56">
-        <v>0.25590241003667386</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B57">
-        <v>0</v>
+      <c r="B57" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="C57" s="28">
-        <v>0.38200000000000001</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="D57">
-        <v>-0.72</v>
+        <v>-0.73099999999999998</v>
       </c>
       <c r="E57">
-        <f t="shared" si="8"/>
-        <v>3.8200000000000002E-4</v>
+        <f>4*C57/($B$6*$B$3*$B$1)</f>
+        <v>3.86E-4</v>
       </c>
       <c r="F57">
-        <f t="shared" si="9"/>
-        <v>4.5093233082706785</v>
-      </c>
-      <c r="I57">
-        <v>0.99833679833679823</v>
-      </c>
-      <c r="J57">
-        <v>8.620796143189325E-3</v>
-      </c>
-      <c r="K57">
-        <v>0.99584189129715028</v>
-      </c>
-      <c r="L57">
-        <v>7.6223618034726659E-2</v>
-      </c>
+        <f>E57*$H$24*$B$9</f>
+        <v>4.5565413533834596</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="L57" s="29"/>
     </row>
     <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B58">
-        <v>1</v>
+      <c r="B58" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="C58" s="28">
-        <v>0.39100000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D58">
-        <v>-0.751</v>
+        <v>-0.72</v>
       </c>
       <c r="E58">
-        <f t="shared" si="8"/>
-        <v>3.9100000000000002E-4</v>
+        <f t="shared" ref="E58:E80" si="8">4*C58/($B$6*$B$3*$B$1)</f>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="F58">
-        <f t="shared" si="9"/>
-        <v>4.615563909774437</v>
-      </c>
-      <c r="I58">
-        <v>1800.7499999998913</v>
+        <f t="shared" ref="F58:F80" si="9">E58*$H$24*$B$9</f>
+        <v>4.5093233082706785</v>
+      </c>
+      <c r="I58" cm="1">
+        <f t="array" ref="I58:J62">LINEST(F60:F64,B60:B64, TRUE, TRUE)</f>
+        <v>0.11568421052631556</v>
       </c>
       <c r="J58">
-        <v>3</v>
-      </c>
-      <c r="K58">
-        <v>478.98790650406357</v>
+        <v>4.502240601503761</v>
+      </c>
+      <c r="K58" cm="1">
+        <f t="array" ref="K58:L62">LINEST(F65:F68,B65:B68, TRUE, TRUE)</f>
+        <v>0.86873199949025115</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>0.7506868867082952</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B59">
-        <v>2</v>
+      <c r="B59" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="C59" s="28">
-        <v>0.4</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D59">
-        <v>-0.78300000000000003</v>
+        <v>-0.71499999999999997</v>
       </c>
       <c r="E59">
         <f t="shared" si="8"/>
-        <v>4.0000000000000002E-4</v>
+        <v>3.8099999999999999E-4</v>
       </c>
       <c r="F59">
         <f t="shared" si="9"/>
-        <v>4.7218045112781963</v>
+        <v>4.4975187969924821</v>
       </c>
       <c r="I59">
-        <v>0.13382836565096901</v>
+        <v>2.7261351056473327E-3</v>
       </c>
       <c r="J59">
-        <v>2.2295437842728379E-4</v>
+        <v>6.6776399787242761E-3</v>
       </c>
       <c r="K59">
-        <v>2.7829388705850908</v>
+        <v>3.9693879291837403E-2</v>
       </c>
       <c r="L59">
-        <v>1.1620079892607816E-2</v>
+        <v>0.25590241003667386</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -7637,21 +7609,33 @@
         <v>138</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" s="28">
-        <v>0.41099999999999998</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D60">
-        <v>-0.81799999999999995</v>
+        <v>-0.72</v>
       </c>
       <c r="E60">
         <f t="shared" si="8"/>
-        <v>4.1099999999999996E-4</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="F60">
         <f t="shared" si="9"/>
-        <v>4.8516541353383467</v>
+        <v>4.5093233082706785</v>
+      </c>
+      <c r="I60">
+        <v>0.99833679833679823</v>
+      </c>
+      <c r="J60">
+        <v>8.620796143189325E-3</v>
+      </c>
+      <c r="K60">
+        <v>0.99584189129715028</v>
+      </c>
+      <c r="L60">
+        <v>7.6223618034726659E-2</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -7659,28 +7643,33 @@
         <v>138</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C61" s="28">
-        <v>0.42099999999999999</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D61">
-        <v>-0.85499999999999998</v>
+        <v>-0.751</v>
       </c>
       <c r="E61">
         <f t="shared" si="8"/>
-        <v>4.2099999999999999E-4</v>
+        <v>3.9100000000000002E-4</v>
       </c>
       <c r="F61">
         <f t="shared" si="9"/>
-        <v>4.9696992481203015</v>
-      </c>
-      <c r="I61" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J61" s="32">
-        <f>B46*(1-I55)/I55</f>
-        <v>1599.9983136581809</v>
+        <v>4.615563909774437</v>
+      </c>
+      <c r="I61">
+        <v>1800.7499999998913</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>478.98790650406357</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -7688,28 +7677,33 @@
         <v>138</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C62" s="28">
-        <v>0.436</v>
+        <v>0.4</v>
       </c>
       <c r="D62">
-        <v>-0.90100000000000002</v>
+        <v>-0.78300000000000003</v>
       </c>
       <c r="E62">
         <f t="shared" si="8"/>
-        <v>4.3599999999999997E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F62">
         <f t="shared" si="9"/>
-        <v>5.1467669172932338</v>
-      </c>
-      <c r="I62" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="J62" s="32">
-        <f>ABS(J61-B47)/B47*100</f>
-        <v>28.017957914865843</v>
+        <v>4.7218045112781963</v>
+      </c>
+      <c r="I62">
+        <v>0.13382836565096901</v>
+      </c>
+      <c r="J62">
+        <v>2.2295437842728379E-4</v>
+      </c>
+      <c r="K62">
+        <v>2.7829388705850908</v>
+      </c>
+      <c r="L62">
+        <v>1.1620079892607816E-2</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -7717,21 +7711,21 @@
         <v>138</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C63" s="28">
-        <v>0.498</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="D63">
-        <v>-1.0680000000000001</v>
+        <v>-0.81799999999999995</v>
       </c>
       <c r="E63">
         <f t="shared" si="8"/>
-        <v>4.9799999999999996E-4</v>
+        <v>4.1099999999999996E-4</v>
       </c>
       <c r="F63">
         <f t="shared" si="9"/>
-        <v>5.8786466165413538</v>
+        <v>4.8516541353383467</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -7739,618 +7733,725 @@
         <v>138</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C64" s="28">
-        <v>0.57799999999999996</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D64">
-        <v>-1.226</v>
+        <v>-0.85499999999999998</v>
       </c>
       <c r="E64">
         <f t="shared" si="8"/>
-        <v>5.7799999999999995E-4</v>
+        <v>4.2099999999999999E-4</v>
       </c>
       <c r="F64">
         <f t="shared" si="9"/>
-        <v>6.8230075187969934</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>4.9696992481203015</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J64" s="49">
+        <f>B49*(1-I58)/I58</f>
+        <v>1599.9983136581809</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="29" t="s">
         <v>138</v>
       </c>
       <c r="B65">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C65" s="28">
-        <v>0.61899999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="D65">
-        <v>-1.3</v>
+        <v>-0.90100000000000002</v>
       </c>
       <c r="E65">
         <f t="shared" si="8"/>
-        <v>6.1899999999999998E-4</v>
+        <v>4.3599999999999997E-4</v>
       </c>
       <c r="F65">
         <f t="shared" si="9"/>
-        <v>7.3069924812030083</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="J65" s="34">
-        <f>(J55-L55)/(K55-I55)</f>
-        <v>4.9818268770923018</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>5.1467669172932338</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="J65" s="32">
+        <f>ABS(J64-B50)/B50*100</f>
+        <v>28.017957914865843</v>
+      </c>
+      <c r="L65" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>98</v>
+        <v>138</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
       </c>
       <c r="C66" s="28">
-        <v>0.32700000000000001</v>
+        <v>0.498</v>
       </c>
       <c r="D66">
-        <v>-0.54</v>
+        <v>-1.0680000000000001</v>
       </c>
       <c r="E66">
         <f t="shared" si="8"/>
-        <v>3.2700000000000003E-4</v>
+        <v>4.9799999999999996E-4</v>
       </c>
       <c r="F66">
         <f t="shared" si="9"/>
-        <v>3.8600751879699255</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="J66" s="35">
-        <f>I55*J65+J55</f>
-        <v>5.0785593107589637</v>
-      </c>
-      <c r="K66" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>5.8786466165413538</v>
+      </c>
+      <c r="L66" cm="1">
+        <f t="array" ref="L66:N70">LINEST(F72:F80,B72:B80^{1,2}, TRUE, TRUE)</f>
+        <v>4.7547767283952734E-2</v>
+      </c>
+      <c r="M66">
+        <v>0.11901225968819949</v>
+      </c>
+      <c r="N66">
+        <v>3.79398283630902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>98</v>
+        <v>138</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
       </c>
       <c r="C67" s="28">
-        <v>0.32300000000000001</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="D67">
-        <v>-0.53400000000000003</v>
+        <v>-1.226</v>
       </c>
       <c r="E67">
         <f t="shared" si="8"/>
-        <v>3.2299999999999999E-4</v>
+        <v>5.7799999999999995E-4</v>
       </c>
       <c r="F67">
         <f t="shared" si="9"/>
-        <v>3.8128571428571436</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>6.8230075187969934</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L67">
+        <v>3.7332453860941753E-3</v>
+      </c>
+      <c r="M67">
+        <v>2.9709926733736368E-2</v>
+      </c>
+      <c r="N67">
+        <v>4.8237239666924926E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>98</v>
+        <v>138</v>
+      </c>
+      <c r="B68">
+        <v>7.5</v>
       </c>
       <c r="C68" s="28">
-        <v>0.32100000000000001</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D68">
-        <v>-0.53</v>
+        <v>-1.3</v>
       </c>
       <c r="E68">
         <f t="shared" si="8"/>
-        <v>3.21E-4</v>
+        <v>6.1899999999999998E-4</v>
       </c>
       <c r="F68">
         <f t="shared" si="9"/>
-        <v>3.7892481203007526</v>
+        <v>7.3069924812030083</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="J68" s="35">
+        <f>(J58-L58)/(K58-I58)</f>
+        <v>4.9818268770923018</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="L68">
+        <v>0.9985119721671587</v>
+      </c>
+      <c r="M68">
+        <v>5.8403179350029387E-2</v>
+      </c>
+      <c r="N68" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B69">
-        <v>0</v>
+      <c r="B69" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="C69" s="28">
-        <v>0.315</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="D69">
-        <v>-0.52800000000000002</v>
+        <v>-0.54</v>
       </c>
       <c r="E69">
         <f t="shared" si="8"/>
-        <v>3.1500000000000001E-4</v>
+        <v>3.2700000000000003E-4</v>
       </c>
       <c r="F69">
         <f t="shared" si="9"/>
-        <v>3.7184210526315797</v>
+        <v>3.8600751879699255</v>
       </c>
       <c r="I69" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="J69" s="34">
-        <f>B46/(B46+J61)</f>
-        <v>0.11568421052631557</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="J69" s="35">
+        <f>I58*J68+J58</f>
+        <v>5.0785593107589637</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="L69">
+        <v>2013.0913215391849</v>
+      </c>
+      <c r="M69">
+        <v>6</v>
+      </c>
+      <c r="N69" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B70">
-        <v>1</v>
+      <c r="B70" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="C70" s="28">
-        <v>0.34399999999999997</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D70">
-        <v>-0.59299999999999997</v>
+        <v>-0.53400000000000003</v>
       </c>
       <c r="E70">
         <f t="shared" si="8"/>
-        <v>3.4399999999999996E-4</v>
+        <v>3.2299999999999999E-4</v>
       </c>
       <c r="F70">
         <f t="shared" si="9"/>
-        <v>4.0607518796992483</v>
-      </c>
-      <c r="I70" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="J70" s="35">
-        <f>D51/(L38*D4)</f>
-        <v>4.2639192803827752</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>3.8128571428571436</v>
+      </c>
+      <c r="L70">
+        <v>13.733032631083148</v>
+      </c>
+      <c r="M70">
+        <v>2.0465588149150192E-2</v>
+      </c>
+      <c r="N70" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B71">
-        <v>2</v>
+      <c r="B71" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="C71" s="28">
-        <v>0.35799999999999998</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="D71">
-        <v>-0.67400000000000004</v>
+        <v>-0.53</v>
       </c>
       <c r="E71">
         <f t="shared" si="8"/>
-        <v>3.5799999999999997E-4</v>
+        <v>3.21E-4</v>
       </c>
       <c r="F71">
         <f t="shared" si="9"/>
-        <v>4.226015037593986</v>
-      </c>
-      <c r="H71" s="28"/>
+        <v>3.7892481203007526</v>
+      </c>
       <c r="I71" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="J71" s="35">
-        <f>J70/(1-J69)</f>
-        <v>4.8217156485699748</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C72" s="28">
-        <v>0.38900000000000001</v>
+        <v>0.315</v>
       </c>
       <c r="D72">
-        <v>-0.76600000000000001</v>
+        <v>-0.52800000000000002</v>
       </c>
       <c r="E72">
         <f t="shared" si="8"/>
-        <v>3.8900000000000002E-4</v>
+        <v>3.1500000000000001E-4</v>
       </c>
       <c r="F72">
         <f t="shared" si="9"/>
-        <v>4.5919548872180469</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>3.7184210526315797</v>
+      </c>
+      <c r="I72" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J72" s="34">
+        <f>B49/(B49+B50)</f>
+        <v>8.6061306591900366E-2</v>
+      </c>
+      <c r="L72" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73" s="28">
-        <v>0.42599999999999999</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D73">
-        <v>-0.85599999999999998</v>
+        <v>-0.59299999999999997</v>
       </c>
       <c r="E73">
         <f t="shared" si="8"/>
-        <v>4.26E-4</v>
+        <v>3.4399999999999996E-4</v>
       </c>
       <c r="F73">
         <f t="shared" si="9"/>
-        <v>5.0287218045112789</v>
+        <v>4.0607518796992483</v>
       </c>
       <c r="I73" s="29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="J73" s="35">
+        <f>D54/(L41*D4)</f>
+        <v>4.2639192803827752</v>
+      </c>
+      <c r="L73" cm="1">
+        <f t="array" ref="L73:M77">LINEST(F72:F80,B72:B80, TRUE, TRUE)</f>
+        <v>0.48417159499539375</v>
+      </c>
+      <c r="M73">
+        <v>3.3904376058723891</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C74" s="28">
-        <v>0.46899999999999997</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D74">
-        <v>-0.94099999999999995</v>
+        <v>-0.67400000000000004</v>
       </c>
       <c r="E74">
         <f t="shared" si="8"/>
-        <v>4.6899999999999996E-4</v>
+        <v>3.5799999999999997E-4</v>
       </c>
       <c r="F74">
         <f t="shared" si="9"/>
-        <v>5.5363157894736847</v>
-      </c>
-      <c r="I74" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="J74" s="32">
-        <f>ABS(J65-J71)/J71</f>
-        <v>3.3206277638917335E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>4.226015037593986</v>
+      </c>
+      <c r="H74" s="28"/>
+      <c r="I74" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="J74" s="35">
+        <f>J73/(1-J72)</f>
+        <v>4.6654324968806344</v>
+      </c>
+      <c r="L74">
+        <v>3.8182466585021134E-2</v>
+      </c>
+      <c r="M74">
+        <v>0.17829844614323084</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C75" s="28">
-        <v>0.52400000000000002</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D75">
-        <v>-1.036</v>
+        <v>-0.76600000000000001</v>
       </c>
       <c r="E75">
         <f t="shared" si="8"/>
-        <v>5.2400000000000005E-4</v>
+        <v>3.8900000000000002E-4</v>
       </c>
       <c r="F75">
         <f t="shared" si="9"/>
-        <v>6.1855639097744382</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>4.5919548872180469</v>
+      </c>
+      <c r="L75">
+        <v>0.95828225428595459</v>
+      </c>
+      <c r="M75">
+        <v>0.28629778238463244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C76" s="28">
-        <v>0.58899999999999997</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="D76">
-        <v>-1.1479999999999999</v>
+        <v>-0.85599999999999998</v>
       </c>
       <c r="E76">
         <f t="shared" si="8"/>
-        <v>5.8900000000000001E-4</v>
+        <v>4.26E-4</v>
       </c>
       <c r="F76">
         <f t="shared" si="9"/>
-        <v>6.9528571428571446</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>5.0287218045112789</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="L76">
+        <v>160.79430144623734</v>
+      </c>
+      <c r="M76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B77">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C77" s="28">
-        <v>0.627</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D77">
-        <v>-1.212</v>
+        <v>-0.94099999999999995</v>
       </c>
       <c r="E77">
         <f t="shared" si="8"/>
-        <v>6.2699999999999995E-4</v>
+        <v>4.6899999999999996E-4</v>
       </c>
       <c r="F77">
         <f t="shared" si="9"/>
+        <v>5.5363157894736847</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="J77" s="48">
+        <f>ABS(J68-J74)/J74*100</f>
+        <v>6.7816730908273239</v>
+      </c>
+      <c r="L77">
+        <v>13.179733277843789</v>
+      </c>
+      <c r="M77">
+        <v>0.57376494138850842</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78" s="28">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D78">
+        <v>-1.036</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="8"/>
+        <v>5.2400000000000005E-4</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="9"/>
+        <v>6.1855639097744382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" s="28">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D79">
+        <v>-1.1479999999999999</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="8"/>
+        <v>5.8900000000000001E-4</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="9"/>
+        <v>6.9528571428571446</v>
+      </c>
+      <c r="L79">
+        <f>B49*(1-L73)/L73</f>
+        <v>222.99348728607754</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80">
+        <v>7.5</v>
+      </c>
+      <c r="C80" s="28">
+        <v>0.627</v>
+      </c>
+      <c r="D80">
+        <v>-1.212</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="8"/>
+        <v>6.2699999999999995E-4</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="9"/>
         <v>7.401428571428573</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" s="29"/>
-    </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="29"/>
-      <c r="B81" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F81" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G81" s="28"/>
-      <c r="I81" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="J81" s="34">
-        <f>_xlfn.STDEV.S(B82:F82)</f>
-        <v>2.4973986465920889E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82">
-        <v>0.372</v>
-      </c>
-      <c r="C82">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="D82">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="E82">
-        <v>0.312</v>
-      </c>
-      <c r="F82">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="I82" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="J82" s="34">
-        <f>_xlfn.STDEV.S(B83:F83)</f>
-        <v>2.4076959940989198E-2</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="29"/>
+    </row>
+    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="29"/>
+      <c r="B84" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G84" s="28"/>
+      <c r="I84" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="J84" s="34">
+        <f>_xlfn.STDEV.S(B85:F85)</f>
+        <v>2.4973986465920889E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.372</v>
+      </c>
+      <c r="C85">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D85">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E85">
+        <v>0.312</v>
+      </c>
+      <c r="F85">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="I85" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J85" s="34">
+        <f>_xlfn.STDEV.S(B86:F86)</f>
+        <v>2.4076959940989198E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B83">
+      <c r="B86">
         <v>-0.70099999999999996</v>
       </c>
-      <c r="C83">
+      <c r="C86">
         <v>-0.68400000000000005</v>
       </c>
-      <c r="D83">
+      <c r="D86">
         <v>-0.71799999999999997</v>
       </c>
-      <c r="E83">
+      <c r="E86">
         <v>-0.65400000000000003</v>
       </c>
-      <c r="F83">
+      <c r="F86">
         <v>-0.67900000000000005</v>
       </c>
-      <c r="I83" s="29" t="s">
+      <c r="I86" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="J83">
-        <f>-_xlfn.T.INV(0.025, COUNT(B82:F82)-1)</f>
+      <c r="J86">
+        <f>-_xlfn.T.INV(0.025, COUNT(B85:F85)-1)</f>
         <v>2.7764451051977934</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I84" s="29" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I87" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J84" s="34">
-        <f>J83*J81/SQRT(5)</f>
+      <c r="J87" s="34">
+        <f>J86*J84/SQRT(5)</f>
         <v>3.1009299886362019E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I85" s="29" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I88" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="J85">
+      <c r="J88">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I86" s="29" t="s">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I89" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="J86" s="34">
-        <f>SQRT(J85^2+J84^2)</f>
+      <c r="J89" s="34">
+        <f>SQRT(J88^2+J87^2)</f>
         <v>3.1025419891474983E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C87" s="29"/>
-      <c r="D87" s="29" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C90" s="29"/>
+      <c r="D90" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E90" s="29" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C88" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D88">
-        <v>0.372</v>
-      </c>
-      <c r="E88">
-        <v>-0.70099999999999996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C89" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="E89">
-        <v>-0.68400000000000005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C90" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D90">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="E90">
-        <v>-0.71799999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C91" s="28" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D91">
-        <v>0.312</v>
+        <v>0.372</v>
       </c>
       <c r="E91">
-        <v>-0.65400000000000003</v>
+        <v>-0.70099999999999996</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C92" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E92">
+        <v>-0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="C93" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E93">
+        <v>-0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="C94" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94">
+        <v>0.312</v>
+      </c>
+      <c r="E94">
+        <v>-0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="C95" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D92">
+      <c r="D95">
         <v>0.32700000000000001</v>
       </c>
-      <c r="E92">
+      <c r="E95">
         <v>-0.67900000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B94" s="29" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C97" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D97" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="E97" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="29" t="s">
+      <c r="F97" s="29" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95" s="47">
-        <v>105.035205565084</v>
-      </c>
-      <c r="D95" s="47">
-        <v>61.8044323267154</v>
-      </c>
-      <c r="E95" s="47">
-        <v>83.419818945899806</v>
-      </c>
-      <c r="F95" s="47">
-        <v>21.615386619184299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96">
-        <v>60</v>
-      </c>
-      <c r="C96" s="47">
-        <v>110.299627123354</v>
-      </c>
-      <c r="D96" s="47">
-        <v>88.863678267925295</v>
-      </c>
-      <c r="E96" s="47">
-        <v>99.581652695640003</v>
-      </c>
-      <c r="F96" s="47">
-        <v>10.717974427714701</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97">
-        <v>75</v>
-      </c>
-      <c r="C97" s="47">
-        <v>124.101056958531</v>
-      </c>
-      <c r="D97" s="47">
-        <v>110.488170977873</v>
-      </c>
-      <c r="E97" s="47">
-        <v>117.294613968202</v>
-      </c>
-      <c r="F97" s="47">
-        <v>6.8064429903292103</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -8358,79 +8459,79 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>125</v>
-      </c>
-      <c r="C98" s="47">
-        <v>174.58436501076301</v>
-      </c>
-      <c r="D98" s="47">
-        <v>167.25016449481899</v>
-      </c>
-      <c r="E98" s="47">
-        <v>170.917264752791</v>
-      </c>
-      <c r="F98" s="47">
-        <v>3.6671002579717298</v>
+        <v>0</v>
+      </c>
+      <c r="C98" s="43">
+        <v>105.035205565084</v>
+      </c>
+      <c r="D98" s="43">
+        <v>61.8044323267154</v>
+      </c>
+      <c r="E98" s="43">
+        <v>83.419818945899806</v>
+      </c>
+      <c r="F98" s="43">
+        <v>21.615386619184299</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99" s="47">
-        <v>105.32974792490199</v>
-      </c>
-      <c r="D99" s="47">
-        <v>62.097869488848403</v>
-      </c>
-      <c r="E99" s="47">
-        <v>83.713808706875596</v>
-      </c>
-      <c r="F99" s="47">
-        <v>21.615939218027101</v>
+        <v>60</v>
+      </c>
+      <c r="C99" s="43">
+        <v>110.299627123354</v>
+      </c>
+      <c r="D99" s="43">
+        <v>88.863678267925295</v>
+      </c>
+      <c r="E99" s="43">
+        <v>99.581652695640003</v>
+      </c>
+      <c r="F99" s="43">
+        <v>10.717974427714701</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>60</v>
-      </c>
-      <c r="C100" s="47">
-        <v>106.346728690221</v>
-      </c>
-      <c r="D100" s="47">
-        <v>84.153188351143797</v>
-      </c>
-      <c r="E100" s="47">
-        <v>95.249958520682696</v>
-      </c>
-      <c r="F100" s="47">
-        <v>11.0967701695389</v>
+        <v>75</v>
+      </c>
+      <c r="C100" s="43">
+        <v>124.101056958531</v>
+      </c>
+      <c r="D100" s="43">
+        <v>110.488170977873</v>
+      </c>
+      <c r="E100" s="43">
+        <v>117.294613968202</v>
+      </c>
+      <c r="F100" s="43">
+        <v>6.8064429903292103</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>75</v>
-      </c>
-      <c r="C101" s="47">
-        <v>108.671256739653</v>
-      </c>
-      <c r="D101" s="47">
-        <v>101.337497072508</v>
-      </c>
-      <c r="E101" s="47">
-        <v>105.00437690608</v>
-      </c>
-      <c r="F101" s="47">
-        <v>3.6668798335724802</v>
+        <v>125</v>
+      </c>
+      <c r="C101" s="43">
+        <v>174.58436501076301</v>
+      </c>
+      <c r="D101" s="43">
+        <v>167.25016449481899</v>
+      </c>
+      <c r="E101" s="43">
+        <v>170.917264752791</v>
+      </c>
+      <c r="F101" s="43">
+        <v>3.6671002579717298</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -8438,24 +8539,84 @@
         <v>95</v>
       </c>
       <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" s="43">
+        <v>105.32974792490199</v>
+      </c>
+      <c r="D102" s="43">
+        <v>62.097869488848403</v>
+      </c>
+      <c r="E102" s="43">
+        <v>83.713808706875596</v>
+      </c>
+      <c r="F102" s="43">
+        <v>21.615939218027101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103">
+        <v>60</v>
+      </c>
+      <c r="C103" s="43">
+        <v>106.346728690221</v>
+      </c>
+      <c r="D103" s="43">
+        <v>84.153188351143797</v>
+      </c>
+      <c r="E103" s="43">
+        <v>95.249958520682696</v>
+      </c>
+      <c r="F103" s="43">
+        <v>11.0967701695389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104">
+        <v>75</v>
+      </c>
+      <c r="C104" s="43">
+        <v>108.671256739653</v>
+      </c>
+      <c r="D104" s="43">
+        <v>101.337497072508</v>
+      </c>
+      <c r="E104" s="43">
+        <v>105.00437690608</v>
+      </c>
+      <c r="F104" s="43">
+        <v>3.6668798335724802</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105">
         <v>125</v>
       </c>
-      <c r="C102" s="47">
+      <c r="C105" s="43">
         <v>166.651631257677</v>
       </c>
-      <c r="D102" s="47">
+      <c r="D105" s="43">
         <v>163.258071527808</v>
       </c>
-      <c r="E102" s="47">
+      <c r="E105" s="43">
         <v>164.954851392742</v>
       </c>
-      <c r="F102" s="47">
+      <c r="F105" s="43">
         <v>1.69677986493434</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab 2 - Bolted Connections/data_and_analysis.xlsx
+++ b/Lab 2 - Bolted Connections/data_and_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-403\Lab 2 - Bolted Connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8FA972-E396-4A22-BED3-1A5CA6DBA93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58ACDC8-AEC4-401D-804E-914EE4D4583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="210">
   <si>
     <t>(V)</t>
   </si>
@@ -650,6 +650,45 @@
   </si>
   <si>
     <t>gasket linear</t>
+  </si>
+  <si>
+    <t>0 lbs gasket</t>
+  </si>
+  <si>
+    <t>0 lbs nogasket</t>
+  </si>
+  <si>
+    <t>125 lbs gasket</t>
+  </si>
+  <si>
+    <t>125 lbs nogasket</t>
+  </si>
+  <si>
+    <t>60 lbs gasket</t>
+  </si>
+  <si>
+    <t>60 lbs nogasket</t>
+  </si>
+  <si>
+    <t>75 lbs gasket</t>
+  </si>
+  <si>
+    <t>75 lbs nogasket</t>
+  </si>
+  <si>
+    <t>mean stress with gasket (MPa vs in-lb)</t>
+  </si>
+  <si>
+    <t>mean stress without gasket (MPa vs in-lb)</t>
+  </si>
+  <si>
+    <t>(in-lb)</t>
+  </si>
+  <si>
+    <t>alternating stress with gasket (MPa vs in-lb)</t>
+  </si>
+  <si>
+    <t>alternating stress without gasket (MPa vs in-lb)</t>
   </si>
 </sst>
 </file>
@@ -746,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -851,8 +890,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,14 +901,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,41 +1350,41 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="G13" s="45" t="s">
+      <c r="E13" s="49"/>
+      <c r="G13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="L13" s="44" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="L13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="44"/>
+      <c r="M13" s="49"/>
       <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="45" t="s">
+      <c r="Z13" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45" t="s">
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45" t="s">
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45" t="s">
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="45"/>
+      <c r="AG13" s="47"/>
     </row>
     <row r="14" spans="1:39" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1365,11 +1405,11 @@
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
@@ -6385,8 +6425,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
@@ -6411,8 +6451,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
@@ -6459,37 +6499,37 @@
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="45"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="47"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
+      <c r="A61" s="49"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
@@ -6511,6 +6551,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:H60"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="K61:L61"/>
     <mergeCell ref="AF13:AG13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K50:L50"/>
@@ -6521,14 +6569,6 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:H60"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6537,17 +6577,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712A8C4D-2617-403C-8503-1436772C4FFD}">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G36" sqref="B36:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -7151,11 +7191,11 @@
         <v>1.6526315789473691</v>
       </c>
       <c r="H37" s="34">
-        <f>ABS(G37*SQRT($J$89^2/D37^2+$L$20^2/$H$24^2))</f>
+        <f t="shared" ref="H36:H41" si="4">ABS(G37*SQRT($J$89^2/D37^2+$L$20^2/$H$24^2))</f>
         <v>0.36819088270515959</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37:I41" si="4">H37/G37*100</f>
+        <f t="shared" ref="I37:I41" si="5">H37/G37*100</f>
         <v>22.279066150949138</v>
       </c>
       <c r="K37">
@@ -7191,11 +7231,11 @@
         <v>3.4705263157894746</v>
       </c>
       <c r="H38" s="34">
-        <f>ABS(G38*SQRT($J$89^2/D38^2+$L$20^2/$H$24^2))</f>
+        <f t="shared" si="4"/>
         <v>0.37476731072216912</v>
       </c>
       <c r="I38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.79857279909192</v>
       </c>
       <c r="K38">
@@ -7231,11 +7271,11 @@
         <v>5.276616541353385</v>
       </c>
       <c r="H39" s="34">
-        <f>ABS(G39*SQRT($J$89^2/D39^2+$L$20^2/$H$24^2))</f>
+        <f t="shared" si="4"/>
         <v>0.3856664510786752</v>
       </c>
       <c r="I39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3089724837150412</v>
       </c>
       <c r="K39">
@@ -7271,11 +7311,11 @@
         <v>7.106315789473685</v>
       </c>
       <c r="H40" s="34">
-        <f>ABS(G40*SQRT($J$89^2/D40^2+$L$20^2/$H$24^2))</f>
+        <f t="shared" si="4"/>
         <v>0.40078053164198424</v>
       </c>
       <c r="I40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6397793669069021</v>
       </c>
       <c r="K40">
@@ -7311,11 +7351,11 @@
         <v>9.1839097744360938</v>
       </c>
       <c r="H41" s="34">
-        <f>ABS(G41*SQRT($J$89^2/D41^2+$L$20^2/$H$24^2))</f>
+        <f t="shared" si="4"/>
         <v>0.42235133578555073</v>
       </c>
       <c r="I41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5988184352723973</v>
       </c>
       <c r="K41" s="31" t="s">
@@ -7330,10 +7370,10 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="47"/>
+      <c r="C43" s="50"/>
     </row>
     <row r="44" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
@@ -7371,7 +7411,7 @@
         <f>B9</f>
         <v>57.570076945141288</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="46">
         <f>D45*$H$24/C45</f>
         <v>510.70828407871807</v>
       </c>
@@ -7395,12 +7435,12 @@
         <f>B10</f>
         <v>69.743724130458673</v>
       </c>
-      <c r="E46" s="50">
-        <f t="shared" ref="E46" si="5">D46*$H$24/C46</f>
+      <c r="E46" s="46">
+        <f t="shared" ref="E46" si="6">D46*$H$24/C46</f>
         <v>382.74537017459215</v>
       </c>
       <c r="F46" s="37">
-        <f t="shared" ref="F46:F47" si="6">1/E46</f>
+        <f t="shared" ref="F46:F47" si="7">1/E46</f>
         <v>2.6127030603762562E-3</v>
       </c>
       <c r="G46" s="37"/>
@@ -7418,15 +7458,15 @@
         <v>3.0225999999999971</v>
       </c>
       <c r="D47" s="37">
-        <f t="shared" ref="D47" si="7">B11</f>
+        <f t="shared" ref="D47" si="8">B11</f>
         <v>71.255739248085618</v>
       </c>
-      <c r="E47" s="50">
+      <c r="E47" s="46">
         <f>D47*$H$24/C47</f>
         <v>4833.8188792351521</v>
       </c>
       <c r="F47" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0687576944509523E-4</v>
       </c>
       <c r="G47" s="37"/>
@@ -7435,7 +7475,7 @@
       <c r="A49" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="45">
         <f>(SUM(F45:F47))^(-1)</f>
         <v>209.30819506134233</v>
       </c>
@@ -7447,7 +7487,7 @@
       <c r="A50" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="48">
+      <c r="B50" s="44">
         <f>PI()*H24*B7*25.4/(2*LN(5*(63.5+0.5*B7*25.4)/(63.5+2.5*B7*25.4)))</f>
         <v>2222.7742744028305</v>
       </c>
@@ -7548,11 +7588,11 @@
         <v>-0.72</v>
       </c>
       <c r="E58">
-        <f t="shared" ref="E58:E80" si="8">4*C58/($B$6*$B$3*$B$1)</f>
+        <f t="shared" ref="E58:E80" si="9">4*C58/($B$6*$B$3*$B$1)</f>
         <v>3.8200000000000002E-4</v>
       </c>
       <c r="F58">
-        <f t="shared" ref="F58:F80" si="9">E58*$H$24*$B$9</f>
+        <f t="shared" ref="F58:F80" si="10">E58*$H$24*$B$9</f>
         <v>4.5093233082706785</v>
       </c>
       <c r="I58" cm="1">
@@ -7584,11 +7624,11 @@
         <v>-0.71499999999999997</v>
       </c>
       <c r="E59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8099999999999999E-4</v>
       </c>
       <c r="F59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.4975187969924821</v>
       </c>
       <c r="I59">
@@ -7618,11 +7658,11 @@
         <v>-0.72</v>
       </c>
       <c r="E60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8200000000000002E-4</v>
       </c>
       <c r="F60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5093233082706785</v>
       </c>
       <c r="I60">
@@ -7652,11 +7692,11 @@
         <v>-0.751</v>
       </c>
       <c r="E61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9100000000000002E-4</v>
       </c>
       <c r="F61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.615563909774437</v>
       </c>
       <c r="I61">
@@ -7686,11 +7726,11 @@
         <v>-0.78300000000000003</v>
       </c>
       <c r="E62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="F62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.7218045112781963</v>
       </c>
       <c r="I62">
@@ -7720,11 +7760,11 @@
         <v>-0.81799999999999995</v>
       </c>
       <c r="E63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1099999999999996E-4</v>
       </c>
       <c r="F63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.8516541353383467</v>
       </c>
     </row>
@@ -7742,17 +7782,17 @@
         <v>-0.85499999999999998</v>
       </c>
       <c r="E64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.2099999999999999E-4</v>
       </c>
       <c r="F64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.9696992481203015</v>
       </c>
       <c r="I64" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="J64" s="49">
+      <c r="J64" s="45">
         <f>B49*(1-I58)/I58</f>
         <v>1599.9983136581809</v>
       </c>
@@ -7771,11 +7811,11 @@
         <v>-0.90100000000000002</v>
       </c>
       <c r="E65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.3599999999999997E-4</v>
       </c>
       <c r="F65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.1467669172932338</v>
       </c>
       <c r="I65" s="31" t="s">
@@ -7803,11 +7843,11 @@
         <v>-1.0680000000000001</v>
       </c>
       <c r="E66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9799999999999996E-4</v>
       </c>
       <c r="F66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8786466165413538</v>
       </c>
       <c r="L66" cm="1">
@@ -7835,11 +7875,11 @@
         <v>-1.226</v>
       </c>
       <c r="E67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7799999999999995E-4</v>
       </c>
       <c r="F67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.8230075187969934</v>
       </c>
       <c r="I67" s="29" t="s">
@@ -7869,11 +7909,11 @@
         <v>-1.3</v>
       </c>
       <c r="E68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1899999999999998E-4</v>
       </c>
       <c r="F68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.3069924812030083</v>
       </c>
       <c r="I68" s="29" t="s">
@@ -7910,11 +7950,11 @@
         <v>-0.54</v>
       </c>
       <c r="E69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.2700000000000003E-4</v>
       </c>
       <c r="F69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8600751879699255</v>
       </c>
       <c r="I69" s="29" t="s">
@@ -7951,11 +7991,11 @@
         <v>-0.53400000000000003</v>
       </c>
       <c r="E70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.2299999999999999E-4</v>
       </c>
       <c r="F70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8128571428571436</v>
       </c>
       <c r="L70">
@@ -7982,11 +8022,11 @@
         <v>-0.53</v>
       </c>
       <c r="E71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.21E-4</v>
       </c>
       <c r="F71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.7892481203007526</v>
       </c>
       <c r="I71" s="29" t="s">
@@ -8007,11 +8047,11 @@
         <v>-0.52800000000000002</v>
       </c>
       <c r="E72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1500000000000001E-4</v>
       </c>
       <c r="F72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.7184210526315797</v>
       </c>
       <c r="I72" s="29" t="s">
@@ -8039,11 +8079,11 @@
         <v>-0.59299999999999997</v>
       </c>
       <c r="E73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.4399999999999996E-4</v>
       </c>
       <c r="F73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.0607518796992483</v>
       </c>
       <c r="I73" s="29" t="s">
@@ -8075,11 +8115,11 @@
         <v>-0.67400000000000004</v>
       </c>
       <c r="E74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5799999999999997E-4</v>
       </c>
       <c r="F74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.226015037593986</v>
       </c>
       <c r="H74" s="28"/>
@@ -8111,11 +8151,11 @@
         <v>-0.76600000000000001</v>
       </c>
       <c r="E75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8900000000000002E-4</v>
       </c>
       <c r="F75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5919548872180469</v>
       </c>
       <c r="L75">
@@ -8139,11 +8179,11 @@
         <v>-0.85599999999999998</v>
       </c>
       <c r="E76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.26E-4</v>
       </c>
       <c r="F76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0287218045112789</v>
       </c>
       <c r="I76" s="29" t="s">
@@ -8170,17 +8210,17 @@
         <v>-0.94099999999999995</v>
       </c>
       <c r="E77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6899999999999996E-4</v>
       </c>
       <c r="F77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.5363157894736847</v>
       </c>
       <c r="I77" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="J77" s="48">
+      <c r="J77" s="44">
         <f>ABS(J68-J74)/J74*100</f>
         <v>6.7816730908273239</v>
       </c>
@@ -8205,11 +8245,11 @@
         <v>-1.036</v>
       </c>
       <c r="E78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.2400000000000005E-4</v>
       </c>
       <c r="F78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1855639097744382</v>
       </c>
     </row>
@@ -8227,11 +8267,11 @@
         <v>-1.1479999999999999</v>
       </c>
       <c r="E79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8900000000000001E-4</v>
       </c>
       <c r="F79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.9528571428571446</v>
       </c>
       <c r="L79">
@@ -8253,11 +8293,11 @@
         <v>-1.212</v>
       </c>
       <c r="E80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.2699999999999995E-4</v>
       </c>
       <c r="F80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.401428571428573</v>
       </c>
     </row>
@@ -8611,6 +8651,188 @@
         <v>164.954851392742</v>
       </c>
       <c r="F105" s="43">
+        <v>1.69677986493434</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" t="s">
+        <v>190</v>
+      </c>
+      <c r="E108" t="s">
+        <v>191</v>
+      </c>
+      <c r="F108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" s="51">
+        <v>105.035205565084</v>
+      </c>
+      <c r="D110" s="51">
+        <v>61.8044323267154</v>
+      </c>
+      <c r="E110" s="34">
+        <v>83.419818945899806</v>
+      </c>
+      <c r="F110" s="51">
+        <v>21.615386619184299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111">
+        <v>60</v>
+      </c>
+      <c r="C111" s="51">
+        <v>110.299627123354</v>
+      </c>
+      <c r="D111" s="34">
+        <v>88.863678267925295</v>
+      </c>
+      <c r="E111" s="51">
+        <v>99.581652695640003</v>
+      </c>
+      <c r="F111" s="51">
+        <v>10.717974427714701</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112">
+        <v>75</v>
+      </c>
+      <c r="C112" s="51">
+        <v>124.101056958531</v>
+      </c>
+      <c r="D112" s="51">
+        <v>110.488170977873</v>
+      </c>
+      <c r="E112" s="51">
+        <v>117.294613968202</v>
+      </c>
+      <c r="F112" s="51">
+        <v>6.8064429903292103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B113">
+        <v>125</v>
+      </c>
+      <c r="C113" s="51">
+        <v>174.58436501076301</v>
+      </c>
+      <c r="D113" s="51">
+        <v>167.25016449481899</v>
+      </c>
+      <c r="E113" s="51">
+        <v>170.917264752791</v>
+      </c>
+      <c r="F113" s="51">
+        <v>3.6671002579717298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" s="51">
+        <v>105.32974792490199</v>
+      </c>
+      <c r="D114" s="51">
+        <v>62.097869488848403</v>
+      </c>
+      <c r="E114" s="51">
+        <v>83.713808706875596</v>
+      </c>
+      <c r="F114" s="51">
+        <v>21.615939218027101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115">
+        <v>60</v>
+      </c>
+      <c r="C115" s="51">
+        <v>106.346728690221</v>
+      </c>
+      <c r="D115" s="51">
+        <v>84.153188351143797</v>
+      </c>
+      <c r="E115" s="51">
+        <v>95.249958520682696</v>
+      </c>
+      <c r="F115" s="51">
+        <v>11.0967701695389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116">
+        <v>75</v>
+      </c>
+      <c r="C116" s="51">
+        <v>108.671256739653</v>
+      </c>
+      <c r="D116" s="51">
+        <v>101.337497072508</v>
+      </c>
+      <c r="E116" s="51">
+        <v>105.00437690608</v>
+      </c>
+      <c r="F116" s="51">
+        <v>3.6668798335724802</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117">
+        <v>125</v>
+      </c>
+      <c r="C117" s="51">
+        <v>166.651631257677</v>
+      </c>
+      <c r="D117" s="51">
+        <v>163.258071527808</v>
+      </c>
+      <c r="E117" s="51">
+        <v>164.954851392742</v>
+      </c>
+      <c r="F117" s="51">
         <v>1.69677986493434</v>
       </c>
     </row>
@@ -8627,10 +8849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE86CD16-957B-44A8-B9AF-BD221A4F681B}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A37" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9014,7 +9236,7 @@
         <v>5.8786466165413538</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>181</v>
       </c>
@@ -9025,7 +9247,7 @@
         <v>6.8230075187969934</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>181</v>
       </c>
@@ -9036,7 +9258,7 @@
         <v>7.3069924812030083</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>183</v>
       </c>
@@ -9047,7 +9269,7 @@
         <v>3.7184210526315797</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>183</v>
       </c>
@@ -9058,7 +9280,7 @@
         <v>4.0607518796992483</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>183</v>
       </c>
@@ -9069,7 +9291,7 @@
         <v>4.226015037593986</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
         <v>183</v>
       </c>
@@ -9080,7 +9302,7 @@
         <v>4.5919548872180469</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
         <v>183</v>
       </c>
@@ -9091,7 +9313,7 @@
         <v>5.0287218045112789</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
         <v>183</v>
       </c>
@@ -9102,7 +9324,7 @@
         <v>5.5363157894736847</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
         <v>183</v>
       </c>
@@ -9113,7 +9335,7 @@
         <v>6.1855639097744382</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
         <v>183</v>
       </c>
@@ -9124,7 +9346,7 @@
         <v>6.9528571428571446</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
         <v>183</v>
       </c>
@@ -9133,6 +9355,190 @@
       </c>
       <c r="C43">
         <v>7.401428571428573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="34">
+        <v>83.419818945899806</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45">
+        <v>60</v>
+      </c>
+      <c r="C45" s="51">
+        <v>99.581652695640003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46">
+        <v>75</v>
+      </c>
+      <c r="C46" s="51">
+        <v>117.294613968202</v>
+      </c>
+      <c r="F46" s="51"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47">
+        <v>125</v>
+      </c>
+      <c r="C47" s="51">
+        <v>170.917264752791</v>
+      </c>
+      <c r="F47" s="51"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="51">
+        <v>83.713808706875596</v>
+      </c>
+      <c r="F48" s="51"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49">
+        <v>60</v>
+      </c>
+      <c r="C49" s="51">
+        <v>95.249958520682696</v>
+      </c>
+      <c r="F49" s="51"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50">
+        <v>75</v>
+      </c>
+      <c r="C50" s="51">
+        <v>105.00437690608</v>
+      </c>
+      <c r="F50" s="51"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51">
+        <v>125</v>
+      </c>
+      <c r="C51" s="51">
+        <v>164.954851392742</v>
+      </c>
+      <c r="F51" s="51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="51">
+        <v>21.615386619184299</v>
+      </c>
+      <c r="F52" s="51"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53">
+        <v>60</v>
+      </c>
+      <c r="C53" s="51">
+        <v>10.717974427714701</v>
+      </c>
+      <c r="F53" s="51"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54">
+        <v>75</v>
+      </c>
+      <c r="C54" s="51">
+        <v>6.8064429903292103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55">
+        <v>125</v>
+      </c>
+      <c r="C55" s="51">
+        <v>3.6671002579717298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="51">
+        <v>21.615939218027101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57">
+        <v>60</v>
+      </c>
+      <c r="C57" s="51">
+        <v>11.0967701695389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58">
+        <v>75</v>
+      </c>
+      <c r="C58" s="51">
+        <v>3.6668798335724802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59">
+        <v>125</v>
+      </c>
+      <c r="C59" s="51">
+        <v>1.69677986493434</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 2 - Bolted Connections/data_and_analysis.xlsx
+++ b/Lab 2 - Bolted Connections/data_and_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-403\Lab 2 - Bolted Connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58ACDC8-AEC4-401D-804E-914EE4D4583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115D5D27-62AF-46D7-81A6-C15D20CD9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -895,19 +895,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1350,41 +1350,41 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="G13" s="47" t="s">
+      <c r="E13" s="48"/>
+      <c r="G13" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="L13" s="49" t="s">
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="L13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="49"/>
+      <c r="M13" s="48"/>
       <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="47" t="s">
+      <c r="Z13" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47" t="s">
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47" t="s">
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47" t="s">
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="47"/>
+      <c r="AG13" s="49"/>
     </row>
     <row r="14" spans="1:39" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1405,11 +1405,11 @@
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
@@ -6425,8 +6425,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
@@ -6451,8 +6451,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
@@ -6499,37 +6499,37 @@
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="47"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="49"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
+      <c r="A61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
@@ -6551,14 +6551,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:H60"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="K61:L61"/>
     <mergeCell ref="AF13:AG13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K50:L50"/>
@@ -6569,6 +6561,14 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:H60"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6580,7 +6580,7 @@
   <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G36" sqref="B36:G39"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6803,7 +6803,7 @@
       <c r="F18" t="s">
         <v>106</v>
       </c>
-      <c r="H18" cm="1">
+      <c r="H18" s="30" cm="1">
         <f t="array" ref="H18:I22">LINEST(D19:D27,A19:A27, FALSE, TRUE)</f>
         <v>8.4713375796178328E-5</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>1.6526315789473691</v>
       </c>
       <c r="H37" s="34">
-        <f t="shared" ref="H36:H41" si="4">ABS(G37*SQRT($J$89^2/D37^2+$L$20^2/$H$24^2))</f>
+        <f t="shared" ref="H37:H41" si="4">ABS(G37*SQRT($J$89^2/D37^2+$L$20^2/$H$24^2))</f>
         <v>0.36819088270515959</v>
       </c>
       <c r="I37">
@@ -7370,10 +7370,10 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="50"/>
+      <c r="C43" s="51"/>
     </row>
     <row r="44" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
@@ -8683,16 +8683,16 @@
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110" s="51">
+      <c r="C110" s="47">
         <v>105.035205565084</v>
       </c>
-      <c r="D110" s="51">
+      <c r="D110" s="47">
         <v>61.8044323267154</v>
       </c>
       <c r="E110" s="34">
         <v>83.419818945899806</v>
       </c>
-      <c r="F110" s="51">
+      <c r="F110" s="47">
         <v>21.615386619184299</v>
       </c>
     </row>
@@ -8703,16 +8703,16 @@
       <c r="B111">
         <v>60</v>
       </c>
-      <c r="C111" s="51">
+      <c r="C111" s="47">
         <v>110.299627123354</v>
       </c>
       <c r="D111" s="34">
         <v>88.863678267925295</v>
       </c>
-      <c r="E111" s="51">
+      <c r="E111" s="47">
         <v>99.581652695640003</v>
       </c>
-      <c r="F111" s="51">
+      <c r="F111" s="47">
         <v>10.717974427714701</v>
       </c>
     </row>
@@ -8723,16 +8723,16 @@
       <c r="B112">
         <v>75</v>
       </c>
-      <c r="C112" s="51">
+      <c r="C112" s="47">
         <v>124.101056958531</v>
       </c>
-      <c r="D112" s="51">
+      <c r="D112" s="47">
         <v>110.488170977873</v>
       </c>
-      <c r="E112" s="51">
+      <c r="E112" s="47">
         <v>117.294613968202</v>
       </c>
-      <c r="F112" s="51">
+      <c r="F112" s="47">
         <v>6.8064429903292103</v>
       </c>
     </row>
@@ -8743,16 +8743,16 @@
       <c r="B113">
         <v>125</v>
       </c>
-      <c r="C113" s="51">
+      <c r="C113" s="47">
         <v>174.58436501076301</v>
       </c>
-      <c r="D113" s="51">
+      <c r="D113" s="47">
         <v>167.25016449481899</v>
       </c>
-      <c r="E113" s="51">
+      <c r="E113" s="47">
         <v>170.917264752791</v>
       </c>
-      <c r="F113" s="51">
+      <c r="F113" s="47">
         <v>3.6671002579717298</v>
       </c>
     </row>
@@ -8763,16 +8763,16 @@
       <c r="B114">
         <v>0</v>
       </c>
-      <c r="C114" s="51">
+      <c r="C114" s="47">
         <v>105.32974792490199</v>
       </c>
-      <c r="D114" s="51">
+      <c r="D114" s="47">
         <v>62.097869488848403</v>
       </c>
-      <c r="E114" s="51">
+      <c r="E114" s="47">
         <v>83.713808706875596</v>
       </c>
-      <c r="F114" s="51">
+      <c r="F114" s="47">
         <v>21.615939218027101</v>
       </c>
     </row>
@@ -8783,16 +8783,16 @@
       <c r="B115">
         <v>60</v>
       </c>
-      <c r="C115" s="51">
+      <c r="C115" s="47">
         <v>106.346728690221</v>
       </c>
-      <c r="D115" s="51">
+      <c r="D115" s="47">
         <v>84.153188351143797</v>
       </c>
-      <c r="E115" s="51">
+      <c r="E115" s="47">
         <v>95.249958520682696</v>
       </c>
-      <c r="F115" s="51">
+      <c r="F115" s="47">
         <v>11.0967701695389</v>
       </c>
     </row>
@@ -8803,16 +8803,16 @@
       <c r="B116">
         <v>75</v>
       </c>
-      <c r="C116" s="51">
+      <c r="C116" s="47">
         <v>108.671256739653</v>
       </c>
-      <c r="D116" s="51">
+      <c r="D116" s="47">
         <v>101.337497072508</v>
       </c>
-      <c r="E116" s="51">
+      <c r="E116" s="47">
         <v>105.00437690608</v>
       </c>
-      <c r="F116" s="51">
+      <c r="F116" s="47">
         <v>3.6668798335724802</v>
       </c>
     </row>
@@ -8823,16 +8823,16 @@
       <c r="B117">
         <v>125</v>
       </c>
-      <c r="C117" s="51">
+      <c r="C117" s="47">
         <v>166.651631257677</v>
       </c>
-      <c r="D117" s="51">
+      <c r="D117" s="47">
         <v>163.258071527808</v>
       </c>
-      <c r="E117" s="51">
+      <c r="E117" s="47">
         <v>164.954851392742</v>
       </c>
-      <c r="F117" s="51">
+      <c r="F117" s="47">
         <v>1.69677986493434</v>
       </c>
     </row>
@@ -9375,7 +9375,7 @@
       <c r="B45">
         <v>60</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="47">
         <v>99.581652695640003</v>
       </c>
     </row>
@@ -9386,10 +9386,10 @@
       <c r="B46">
         <v>75</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="47">
         <v>117.294613968202</v>
       </c>
-      <c r="F46" s="51"/>
+      <c r="F46" s="47"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="s">
@@ -9398,10 +9398,10 @@
       <c r="B47">
         <v>125</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="47">
         <v>170.917264752791</v>
       </c>
-      <c r="F47" s="51"/>
+      <c r="F47" s="47"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
@@ -9410,10 +9410,10 @@
       <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="47">
         <v>83.713808706875596</v>
       </c>
-      <c r="F48" s="51"/>
+      <c r="F48" s="47"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
@@ -9422,10 +9422,10 @@
       <c r="B49">
         <v>60</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="47">
         <v>95.249958520682696</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="47"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="29" t="s">
@@ -9434,10 +9434,10 @@
       <c r="B50">
         <v>75</v>
       </c>
-      <c r="C50" s="51">
+      <c r="C50" s="47">
         <v>105.00437690608</v>
       </c>
-      <c r="F50" s="51"/>
+      <c r="F50" s="47"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
@@ -9446,10 +9446,10 @@
       <c r="B51">
         <v>125</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="47">
         <v>164.954851392742</v>
       </c>
-      <c r="F51" s="51"/>
+      <c r="F51" s="47"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
@@ -9458,10 +9458,10 @@
       <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52" s="51">
+      <c r="C52" s="47">
         <v>21.615386619184299</v>
       </c>
-      <c r="F52" s="51"/>
+      <c r="F52" s="47"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="29" t="s">
@@ -9470,10 +9470,10 @@
       <c r="B53">
         <v>60</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="47">
         <v>10.717974427714701</v>
       </c>
-      <c r="F53" s="51"/>
+      <c r="F53" s="47"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="29" t="s">
@@ -9482,7 +9482,7 @@
       <c r="B54">
         <v>75</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="47">
         <v>6.8064429903292103</v>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
       <c r="B55">
         <v>125</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="47">
         <v>3.6671002579717298</v>
       </c>
     </row>
@@ -9504,7 +9504,7 @@
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="47">
         <v>21.615939218027101</v>
       </c>
     </row>
@@ -9515,7 +9515,7 @@
       <c r="B57">
         <v>60</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="47">
         <v>11.0967701695389</v>
       </c>
     </row>
@@ -9526,7 +9526,7 @@
       <c r="B58">
         <v>75</v>
       </c>
-      <c r="C58" s="51">
+      <c r="C58" s="47">
         <v>3.6668798335724802</v>
       </c>
     </row>
@@ -9537,7 +9537,7 @@
       <c r="B59">
         <v>125</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="47">
         <v>1.69677986493434</v>
       </c>
     </row>

--- a/Lab 2 - Bolted Connections/data_and_analysis.xlsx
+++ b/Lab 2 - Bolted Connections/data_and_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-403\Lab 2 - Bolted Connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115D5D27-62AF-46D7-81A6-C15D20CD9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43229272-3B16-4BA1-A8E3-B91B40F11CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,13 +897,13 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1350,41 +1350,41 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="G13" s="49" t="s">
+      <c r="E13" s="50"/>
+      <c r="G13" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="L13" s="48" t="s">
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="L13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="48"/>
+      <c r="M13" s="50"/>
       <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="49" t="s">
+      <c r="Z13" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49" t="s">
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49" t="s">
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49" t="s">
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="49"/>
+      <c r="AG13" s="48"/>
     </row>
     <row r="14" spans="1:39" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1405,11 +1405,11 @@
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
@@ -6425,8 +6425,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
@@ -6451,8 +6451,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
@@ -6499,37 +6499,37 @@
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="49"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="48"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
+      <c r="A61" s="50"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
@@ -6551,6 +6551,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:H60"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="K61:L61"/>
     <mergeCell ref="AF13:AG13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K50:L50"/>
@@ -6561,14 +6569,6 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:H60"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6579,8 +6579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712A8C4D-2617-403C-8503-1436772C4FFD}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Lab 2 - Bolted Connections/data_and_analysis.xlsx
+++ b/Lab 2 - Bolted Connections/data_and_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-403\Lab 2 - Bolted Connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43229272-3B16-4BA1-A8E3-B91B40F11CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E174BC-1EB3-47F8-BED5-082DFD1BD6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,13 +897,13 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1350,41 +1350,41 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="G13" s="48" t="s">
+      <c r="E13" s="48"/>
+      <c r="G13" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="L13" s="50" t="s">
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="L13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="50"/>
+      <c r="M13" s="48"/>
       <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="48" t="s">
+      <c r="Z13" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48" t="s">
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48" t="s">
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48" t="s">
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="48"/>
+      <c r="AG13" s="49"/>
     </row>
     <row r="14" spans="1:39" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1405,11 +1405,11 @@
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
@@ -6425,8 +6425,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
@@ -6451,8 +6451,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
@@ -6499,37 +6499,37 @@
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="48"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="49"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
+      <c r="A61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
@@ -6551,14 +6551,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:H60"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="K61:L61"/>
     <mergeCell ref="AF13:AG13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K50:L50"/>
@@ -6569,6 +6561,14 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:H60"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6579,8 +6579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712A8C4D-2617-403C-8503-1436772C4FFD}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
